--- a/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.916</v>
+        <v>21.507</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8070000000000001</v>
+        <v>-1.077</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.562</v>
+        <v>25.256</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.751</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.255</v>
+        <v>19.204</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>35.91415382428755</v>
+        <v>-11.79518906173934</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>35.91415382428755</v>
+        <v>28.88365791751954</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>35.91415382428755</v>
+        <v>37.75092834821072</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>35.91415382428755</v>
+        <v>5.309065745471287</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>35.91415382428755</v>
+        <v>22.41009709024382</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>35.91415382428755</v>
+        <v>28.74745784023122</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>35.91415382428755</v>
+        <v>22.40242003929274</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>35.91415382428755</v>
+        <v>30.71204804975099</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>35.91415382428755</v>
+        <v>35.59824917693032</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>35.91415382428755</v>
+        <v>40.8278411233992</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.91415382428755</v>
+        <v>47.45513374635976</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.91415382428755</v>
+        <v>52.97162437962658</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>35.91415382428755</v>
+        <v>16.72609594741328</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>35.91415382428755</v>
+        <v>42.19185578611194</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.91415382428755</v>
+        <v>49.31802381335257</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>35.91415382428755</v>
+        <v>-6.583273880570289</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>35.91415382428755</v>
+        <v>34.10022451466529</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.91415382428755</v>
+        <v>42.97080726546625</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>35.91415382428755</v>
+        <v>10.51603886061702</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>35.91415382428755</v>
+        <v>27.62076627987261</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>35.91415382428755</v>
+        <v>33.96097577329743</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35.91415382428755</v>
+        <v>27.61550256973391</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>35.91415382428755</v>
+        <v>35.92807279649668</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>35.91415382428755</v>
+        <v>40.81672207821526</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>35.91415382428755</v>
+        <v>46.04409129625668</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.91415382428755</v>
+        <v>52.67274192703479</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>35.91415382428755</v>
+        <v>58.19097851091743</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>35.91415382428755</v>
+        <v>21.94123618719703</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>35.91415382428755</v>
+        <v>47.41259057318274</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>35.91415382428755</v>
+        <v>54.54114043444775</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35.91415382428755</v>
+        <v>7.261333535531264</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.91415382428755</v>
+        <v>47.9461257962875</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.91415382428755</v>
+        <v>56.81667469611722</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>35.91415382428755</v>
+        <v>24.36689400416714</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.91415382428755</v>
+        <v>41.47294164061128</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35.91415382428755</v>
+        <v>47.81339742527081</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.91415382428755</v>
+        <v>41.46828712523262</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>35.91415382428755</v>
+        <v>49.7820386423428</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>35.91415382428755</v>
+        <v>54.67097864419935</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>35.91415382428755</v>
+        <v>59.90425962472358</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.91415382428755</v>
+        <v>66.53329075573998</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>35.91415382428755</v>
+        <v>72.05185050686958</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.91415382428755</v>
+        <v>35.79920833994692</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.91415382428755</v>
+        <v>61.27224627638606</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>35.91415382428755</v>
+        <v>68.40107410863135</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>35.91415382428755</v>
+        <v>-9.998081912592681</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>35.91415382428755</v>
+        <v>30.68129726173623</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.91415382428755</v>
+        <v>39.54784575811806</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>35.91415382428755</v>
+        <v>7.106040088835073</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>35.91415382428755</v>
+        <v>24.20780740489096</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>35.91415382428755</v>
+        <v>30.54455539306019</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>35.91415382428755</v>
+        <v>24.19972503489345</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>35.91415382428755</v>
+        <v>32.51006654515396</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>35.91415382428755</v>
+        <v>37.39575287476924</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>35.91415382428755</v>
+        <v>42.62549167685921</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>35.91415382428755</v>
+        <v>49.25308663707557</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.91415382428755</v>
+        <v>54.76904299963513</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>35.91415382428755</v>
+        <v>18.52266898504428</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>35.91415382428755</v>
+        <v>43.98929817765435</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.91415382428755</v>
+        <v>51.11480902843874</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>35.91415382428755</v>
+        <v>-4.791349877994719</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>35.91415382428755</v>
+        <v>35.8926806660358</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.91415382428755</v>
+        <v>44.76254134791844</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.91415382428755</v>
+        <v>12.30782970246656</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>35.91415382428755</v>
+        <v>29.41329295506677</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.91415382428755</v>
+        <v>35.75288962737733</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>35.91415382428755</v>
+        <v>29.40762397749046</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>35.91415382428755</v>
+        <v>37.72090755619598</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>35.91415382428755</v>
+        <v>42.60904200730357</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.91415382428755</v>
+        <v>47.83655847687254</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>35.91415382428755</v>
+        <v>54.46551142118454</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>35.91415382428755</v>
+        <v>59.98321367145985</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>35.91415382428755</v>
+        <v>23.73262619559392</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>35.91415382428755</v>
+        <v>49.20484977187317</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>35.91415382428755</v>
+        <v>56.33274241302462</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>35.91415382428755</v>
+        <v>9.053857933286338</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.91415382428755</v>
+        <v>49.73918238375455</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>35.91415382428755</v>
+        <v>58.60900921161459</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>35.91415382428755</v>
+        <v>26.15928513124828</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.91415382428755</v>
+        <v>43.26606867941683</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>35.91415382428755</v>
+        <v>49.60591161870349</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>35.91415382428755</v>
+        <v>43.26100883607506</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>35.91415382428755</v>
+        <v>51.57547378571604</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>35.91415382428755</v>
+        <v>56.46389893097711</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>35.91415382428755</v>
+        <v>61.69732690279346</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>35.91415382428755</v>
+        <v>68.32666037623477</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>35.91415382428755</v>
+        <v>73.84468573925363</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>35.91415382428755</v>
+        <v>37.59119845176673</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>35.91415382428755</v>
+        <v>63.06510564937952</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>35.91415382428755</v>
+        <v>70.19327622393558</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>35.91415382428755</v>
+        <v>-10.65910110146575</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>35.91415382428755</v>
+        <v>30.02022623831698</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.91415382428755</v>
+        <v>38.88667608067027</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>35.91415382428755</v>
+        <v>6.444947632421815</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.91415382428755</v>
+        <v>23.5466292976941</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.91415382428755</v>
+        <v>29.88328734345333</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>35.91415382428755</v>
+        <v>23.53861909689869</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>35.91415382428755</v>
+        <v>31.84887380998299</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>35.91415382428755</v>
+        <v>36.73448370964462</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>35.91415382428755</v>
+        <v>41.96450059622151</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>35.91415382428755</v>
+        <v>48.59200285863557</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>35.91415382428755</v>
+        <v>54.10790551736073</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>35.91415382428755</v>
+        <v>17.86170029395106</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>35.91415382428755</v>
+        <v>43.32825098557663</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>35.91415382428755</v>
+        <v>50.45364147338415</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>35.91415382428755</v>
+        <v>-5.45083215898984</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>35.91415382428755</v>
+        <v>35.23314660454486</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.91415382428755</v>
+        <v>44.10290861651589</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>35.91415382428755</v>
+        <v>11.64827426950552</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>35.91415382428755</v>
+        <v>28.75365191567386</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.91415382428755</v>
+        <v>35.093158632908</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>35.91415382428755</v>
+        <v>28.74805513835923</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>35.91415382428755</v>
+        <v>37.06125195783267</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>35.91415382428755</v>
+        <v>41.94930996857948</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>35.91415382428755</v>
+        <v>47.17710446954192</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>35.91415382428755</v>
+        <v>53.80596470649192</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>35.91415382428755</v>
+        <v>59.32361323801678</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>35.91415382428755</v>
+        <v>23.07319450347603</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>35.91415382428755</v>
+        <v>48.54533960868633</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>35.91415382428755</v>
+        <v>55.67311187182003</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.91415382428755</v>
+        <v>8.394470502137494</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.91415382428755</v>
+        <v>49.07974318726002</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>35.91415382428755</v>
+        <v>57.9494713527086</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>35.91415382428755</v>
+        <v>25.49982457527705</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>35.91415382428755</v>
+        <v>42.60652252989127</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>35.91415382428755</v>
+        <v>48.94627552122898</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>35.91415382428755</v>
+        <v>42.60153488228462</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>35.91415382428755</v>
+        <v>50.91591308284666</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>35.91415382428755</v>
+        <v>55.80426179424359</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>35.91415382428755</v>
+        <v>61.03796778471127</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>35.91415382428755</v>
+        <v>67.66720856827482</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>35.91415382428755</v>
+        <v>73.18518021544281</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>35.91415382428755</v>
+        <v>36.93186164526168</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>35.91415382428755</v>
+        <v>62.40569039001588</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>35.91415382428755</v>
+        <v>69.53374059565596</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>35.91415382428755</v>
+        <v>-16.06938654035486</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>35.91415382428755</v>
+        <v>24.60888071596736</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>35.91415382428755</v>
+        <v>33.47593114471243</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>35.91415382428755</v>
+        <v>1.034240261101957</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>35.91415382428755</v>
+        <v>18.13488550063647</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>35.91415382428755</v>
+        <v>24.47200484659248</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>35.91415382428755</v>
+        <v>18.12725557326354</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>35.91415382428755</v>
+        <v>26.43659629595601</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>35.91415382428755</v>
+        <v>31.32257551940353</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.91415382428755</v>
+        <v>36.55246322436682</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>35.91415382428755</v>
+        <v>43.17962024548223</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>35.91415382428755</v>
+        <v>48.69598465191081</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>35.91415382428755</v>
+        <v>12.45124576134702</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>35.91415382428755</v>
+        <v>37.9165161840005</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>35.91415382428755</v>
+        <v>45.04243364442601</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>35.91415382428755</v>
+        <v>-10.85862737219742</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>35.91415382428755</v>
+        <v>29.82429122528873</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>35.91415382428755</v>
+        <v>38.6946539245269</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>35.91415382428755</v>
+        <v>6.240057376293692</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>35.91415382428755</v>
+        <v>23.34439860630374</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>35.91415382428755</v>
+        <v>29.68436665785617</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>35.91415382428755</v>
+        <v>23.33918199598628</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>35.91415382428755</v>
+        <v>31.65146485856707</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>35.91415382428755</v>
+        <v>36.53989220533668</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>35.91415382428755</v>
+        <v>41.7675572981272</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>35.91415382428755</v>
+        <v>48.39607229634447</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>35.91415382428755</v>
+        <v>53.91418263895031</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>35.91415382428755</v>
+        <v>17.66522996770885</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>35.91415382428755</v>
+        <v>43.13609482847318</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>35.91415382428755</v>
+        <v>50.26439408899711</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>35.91415382428755</v>
+        <v>2.986125967421629</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.91415382428755</v>
+        <v>43.67033842576296</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>35.91415382428755</v>
+        <v>52.54066728160689</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>35.91415382428755</v>
+        <v>20.09105837718079</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.91415382428755</v>
+        <v>37.19671982008907</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>35.91415382428755</v>
+        <v>43.53693416047219</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>35.91415382428755</v>
+        <v>37.19211241471822</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>35.91415382428755</v>
+        <v>45.50557656385223</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>35.91415382428755</v>
+        <v>50.39429462657068</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>35.91415382428755</v>
+        <v>55.62787140423319</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>35.91415382428755</v>
+        <v>62.25676689067262</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>35.91415382428755</v>
+        <v>67.77520039191126</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>35.91415382428755</v>
+        <v>31.52334788072432</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>35.91415382428755</v>
+        <v>56.99589628360246</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>35.91415382428755</v>
+        <v>64.12447350846543</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>35.91415382428755</v>
+        <v>-5.590957051061821</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>35.91415382428755</v>
+        <v>35.08813643852142</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>35.91415382428755</v>
+        <v>43.95504887272938</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>35.91415382428755</v>
+        <v>11.51372639315281</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>35.91415382428755</v>
+        <v>28.61516438950656</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>35.91415382428755</v>
+        <v>34.95217279815421</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>35.91415382428755</v>
+        <v>28.60733849792126</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>35.91415382428755</v>
+        <v>36.91738028342519</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>35.91415382428755</v>
+        <v>41.80326782982439</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.91415382428755</v>
+        <v>47.03302377360393</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>35.91415382428755</v>
+        <v>53.66045453616772</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>35.91415382428755</v>
+        <v>59.17674474300105</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>35.91415382428755</v>
+        <v>22.9309324336736</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>35.91415382428755</v>
+        <v>48.39704557207932</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>35.91415382428755</v>
+        <v>55.52285015100159</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>35.91415382428755</v>
+        <v>-0.3786410997573171</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>35.91415382428755</v>
+        <v>40.30510378776552</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>35.91415382428755</v>
+        <v>49.17532841901772</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>35.91415382428755</v>
+        <v>16.72110037362353</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>35.91415382428755</v>
+        <v>33.82623442624316</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>35.91415382428755</v>
+        <v>40.16609145767649</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>35.91415382428755</v>
+        <v>33.82082187171403</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>35.91415382428755</v>
+        <v>42.13380585873955</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>35.91415382428755</v>
+        <v>47.0221414512153</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>35.91415382428755</v>
+        <v>52.24967476912383</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>35.91415382428755</v>
+        <v>58.87846352567357</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>35.91415382428755</v>
+        <v>64.39649963902872</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>35.91415382428755</v>
+        <v>28.14647360391126</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>35.91415382428755</v>
+        <v>53.61818124556993</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>35.91415382428755</v>
+        <v>60.74636755071964</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>35.91415382428755</v>
+        <v>13.46513874877786</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>35.91415382428755</v>
+        <v>54.15017744681694</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>35.91415382428755</v>
+        <v>63.02036824842372</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>35.91415382428755</v>
+        <v>30.57112788896035</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>35.91415382428755</v>
+        <v>47.67758211351571</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>35.91415382428755</v>
+        <v>54.01768544315956</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>35.91415382428755</v>
+        <v>47.67277873981499</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>35.91415382428755</v>
+        <v>55.98694397837249</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>35.91415382428755</v>
+        <v>60.87557029391479</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>35.91415382428755</v>
+        <v>66.109015362359</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.91415382428755</v>
+        <v>72.73818460684703</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>35.91415382428755</v>
+        <v>78.25654387455614</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>35.91415382428755</v>
+        <v>42.0036180483541</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>35.91415382428755</v>
+        <v>67.4770092032133</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>35.91415382428755</v>
+        <v>74.6054734835198</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>35.91415382428755</v>
+        <v>-3.721367573772852</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>35.91415382428755</v>
+        <v>36.95586469543281</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>35.91415382428755</v>
+        <v>45.82151210266267</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>35.91415382428755</v>
+        <v>13.38237400962367</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>35.91415382428755</v>
+        <v>30.48354030584807</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>35.91415382428755</v>
+        <v>36.81956329200585</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>35.91415382428755</v>
+        <v>30.4752464135326</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>35.91415382428755</v>
+        <v>38.7855178514821</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>35.91415382428755</v>
+        <v>43.67060822765308</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>35.91415382428755</v>
+        <v>48.90017677221653</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>35.91415382428755</v>
+        <v>55.52749224271832</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>35.91415382428755</v>
+        <v>61.04299517488681</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>35.91415382428755</v>
+        <v>24.79861026382179</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>35.91415382428755</v>
+        <v>50.26398235553262</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>35.91415382428755</v>
+        <v>57.38871772080751</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>35.91415382428755</v>
+        <v>1.490804145053346</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>35.91415382428755</v>
+        <v>42.17268757537596</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>35.91415382428755</v>
+        <v>51.04164683335586</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>35.91415382428755</v>
+        <v>18.58960398585901</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>35.91415382428755</v>
+        <v>35.69446610197616</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>35.91415382428755</v>
+        <v>42.0333374402515</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>35.91415382428755</v>
+        <v>35.68858548510997</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>35.91415382428755</v>
+        <v>44.0017989185373</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>35.91415382428755</v>
+        <v>48.88933711749547</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>35.91415382428755</v>
+        <v>54.11668334358563</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>35.91415382428755</v>
+        <v>60.74535674622183</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>35.91415382428755</v>
+        <v>66.26260540574577</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>35.91415382428755</v>
+        <v>30.01400724187164</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>35.91415382428755</v>
+        <v>55.48497349541714</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>35.91415382428755</v>
+        <v>62.61209034958614</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>35.91415382428755</v>
+        <v>15.33397754908691</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>35.91415382428755</v>
+        <v>56.01715473063103</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>35.91415382428755</v>
+        <v>64.88608014744506</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>35.91415382428755</v>
+        <v>32.43902449035153</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>35.91415382428755</v>
+        <v>49.54520675215775</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.91415382428755</v>
+        <v>55.88432434565556</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>35.91415382428755</v>
+        <v>49.53993526195319</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>35.91415382428755</v>
+        <v>57.85432993350418</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>35.91415382428755</v>
+        <v>62.74215880958599</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>35.91415382428755</v>
+        <v>67.97541622308125</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>35.91415382428755</v>
+        <v>74.60447009861292</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>35.91415382428755</v>
+        <v>80.1220418487398</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>35.91415382428755</v>
+        <v>43.87054412699962</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>35.91415382428755</v>
+        <v>69.34319383900953</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>35.91415382428755</v>
+        <v>76.47058861884574</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>35.91415382428755</v>
+        <v>-16.55017674773973</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>35.91415382428755</v>
+        <v>24.12618854397527</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>35.91415382428755</v>
+        <v>32.992595948683</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>35.91415382428755</v>
+        <v>0.5524911238940717</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>35.91415382428755</v>
+        <v>17.65247614013089</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>35.91415382428755</v>
+        <v>23.98926785096666</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>35.91415382428755</v>
+        <v>17.6447495306474</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>35.91415382428755</v>
+        <v>25.9538636449708</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>35.91415382428755</v>
+        <v>30.83964671171344</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>35.91415382428755</v>
+        <v>36.06908610644308</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>35.91415382428755</v>
+        <v>42.69594669653674</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>35.91415382428755</v>
+        <v>48.21186944992434</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>35.91415382428755</v>
+        <v>11.96850613756152</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>35.91415382428755</v>
+        <v>37.43280364524963</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>35.91415382428755</v>
+        <v>44.55829771669147</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>35.91415382428755</v>
+        <v>-11.33755335422683</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>35.91415382428755</v>
+        <v>29.34346317005685</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.91415382428755</v>
+        <v>38.2131827006877</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>35.91415382428755</v>
+        <v>5.760172703082446</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>35.91415382428755</v>
+        <v>22.86385360542687</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>35.91415382428755</v>
+        <v>29.2034939439298</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>35.91415382428755</v>
+        <v>22.85854030742502</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>35.91415382428755</v>
+        <v>31.17059647266177</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>35.91415382428755</v>
+        <v>36.05882761158415</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>35.91415382428755</v>
+        <v>41.28604441025362</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>35.91415382428755</v>
+        <v>47.91426295219043</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>35.91415382428755</v>
+        <v>53.43193152131818</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>35.91415382428755</v>
+        <v>17.18435452906937</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>35.91415382428755</v>
+        <v>42.65424630135607</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>35.91415382428755</v>
+        <v>49.78212210710404</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>35.91415382428755</v>
+        <v>2.50761165777584</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>35.91415382428755</v>
+        <v>43.18992208283106</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.91415382428755</v>
+        <v>52.05960772348345</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>35.91415382428755</v>
+        <v>19.61158495993726</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>35.91415382428755</v>
+        <v>36.71658613138374</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>35.91415382428755</v>
+        <v>43.05647270910373</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>35.91415382428755</v>
+        <v>36.71188198499277</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>35.91415382428755</v>
+        <v>45.02511949329624</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>35.91415382428755</v>
+        <v>49.91364130329572</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>35.91415382428755</v>
+        <v>55.14676927497129</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>35.91415382428755</v>
+        <v>61.77536833424512</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>35.91415382428755</v>
+        <v>67.29336001946712</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>35.91415382428755</v>
+        <v>31.04288333527637</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>35.91415382428755</v>
+        <v>56.51445867372973</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>35.91415382428755</v>
+        <v>63.64261239560796</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>35.91415382428755</v>
+        <v>-15.19488108238448</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>35.91415382428755</v>
+        <v>25.48401978378268</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>35.91415382428755</v>
+        <v>34.35099713650112</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>35.91415382428755</v>
+        <v>1.909202776770883</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>35.91415382428755</v>
+        <v>19.01037153067801</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>35.91415382428755</v>
+        <v>25.34743170609664</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>35.91415382428755</v>
+        <v>19.00244361327503</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>35.91415382428755</v>
+        <v>27.31221967126265</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>35.91415382428755</v>
+        <v>32.19814965054098</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>35.91415382428755</v>
+        <v>37.4281797963842</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.91415382428755</v>
+        <v>44.05554013212549</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>35.91415382428755</v>
+        <v>49.57187086475284</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>35.91415382428755</v>
+        <v>13.32633467212582</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>35.91415382428755</v>
+        <v>38.79221725737699</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>35.91415382428755</v>
+        <v>45.91806712950466</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>35.91415382428755</v>
+        <v>-9.984403435603269</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>35.91415382428755</v>
+        <v>30.69914881505844</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>35.91415382428755</v>
+        <v>39.56943840317336</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>35.91415382428755</v>
+        <v>7.114738330237685</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>35.91415382428755</v>
+        <v>24.21960311398919</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>35.91415382428755</v>
+        <v>30.55951195731456</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>35.91415382428755</v>
+        <v>24.21408852486371</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>35.91415382428755</v>
+        <v>32.52680675685139</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>35.91415382428755</v>
+        <v>37.41518482489283</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>35.91415382428755</v>
+        <v>42.64299238765835</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>35.91415382428755</v>
+        <v>49.27171071447134</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>35.91415382428755</v>
+        <v>54.78978737292283</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>35.91415382428755</v>
+        <v>18.54003745124447</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>35.91415382428755</v>
+        <v>44.0115145204789</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>35.91415382428755</v>
+        <v>51.13974615966873</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>35.91415382428755</v>
+        <v>3.859992647888305</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>35.91415382428755</v>
+        <v>44.54483874189356</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>35.91415382428755</v>
+        <v>53.41509451112989</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>35.91415382428755</v>
+        <v>20.96538210622788</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>35.91415382428755</v>
+        <v>38.07156709695431</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.91415382428755</v>
+        <v>44.41172224632379</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>35.91415382428755</v>
+        <v>38.06666169660951</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>35.91415382428755</v>
+        <v>46.38056121299468</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>35.91415382428755</v>
+        <v>51.26923000991957</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>35.91415382428755</v>
+        <v>56.50294926944611</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>35.91415382428755</v>
+        <v>63.13204809507823</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>35.91415382428755</v>
+        <v>68.65044791640179</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>35.91415382428755</v>
+        <v>32.39779815411924</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>35.91415382428755</v>
+        <v>57.87095876603013</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>35.91415382428755</v>
+        <v>64.99946838567433</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>35.91415382428755</v>
+        <v>-0.06915967816127022</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>35.91415382428755</v>
+        <v>40.60961775294157</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>35.91415382428755</v>
+        <v>49.47562409196263</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>35.91415382428755</v>
+        <v>17.03595935042455</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>35.91415382428755</v>
+        <v>34.13784310529678</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>35.91415382428755</v>
+        <v>40.47418760013494</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>35.91415382428755</v>
+        <v>34.12949446007764</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>35.91415382428755</v>
+        <v>42.44015967299919</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>35.91415382428755</v>
+        <v>47.32552497889611</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>35.91415382428755</v>
+        <v>52.5551959681797</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>35.91415382428755</v>
+        <v>59.18277073561916</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>35.91415382428755</v>
+        <v>64.69843957182303</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>35.91415382428755</v>
+        <v>28.45269224546763</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>35.91415382428755</v>
+        <v>53.91914401357843</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>35.91415382428755</v>
+        <v>61.0442380272454</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>35.91415382428755</v>
+        <v>5.138817923669819</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>35.91415382428755</v>
+        <v>45.82224660086484</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>35.91415382428755</v>
+        <v>54.69156493697761</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>35.91415382428755</v>
+        <v>22.23899470940438</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>35.91415382428755</v>
+        <v>39.34457434917618</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>35.91415382428755</v>
+        <v>45.6837673335329</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>35.91415382428755</v>
+        <v>39.33863895484939</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>35.91415382428755</v>
+        <v>47.65224621274893</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>35.91415382428755</v>
+        <v>52.54005946391527</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>35.91415382428755</v>
+        <v>57.76750805325156</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>35.91415382428755</v>
+        <v>64.39644078012901</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>35.91415382428755</v>
+        <v>69.91385540134962</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>35.91415382428755</v>
+        <v>33.66389474500676</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>35.91415382428755</v>
+        <v>59.13594080047341</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>35.91415382428755</v>
+        <v>66.26341641252242</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>35.91415382428755</v>
+        <v>18.9825948131159</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.91415382428755</v>
+        <v>59.66731730884993</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>35.91415382428755</v>
+        <v>68.53660177746355</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>35.91415382428755</v>
+        <v>36.08901893865999</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>35.91415382428755</v>
+        <v>53.19591878644763</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>35.91415382428755</v>
+        <v>59.53535802098946</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>35.91415382428755</v>
+        <v>53.19059250625975</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>35.91415382428755</v>
+        <v>61.505381056217</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>35.91415382428755</v>
+        <v>66.3934849861451</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>35.91415382428755</v>
+        <v>71.62684492091063</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>35.91415382428755</v>
+        <v>78.2561581492393</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>35.91415382428755</v>
+        <v>83.77389586148394</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>35.91415382428755</v>
+        <v>47.52103556456831</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>35.91415382428755</v>
+        <v>72.99476514601832</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>35.91415382428755</v>
+        <v>80.12251867579681</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>35.91415382428755</v>
+        <v>-21.19175794873019</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>35.91415382428755</v>
+        <v>19.48407785395528</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>35.91415382428755</v>
+        <v>28.35082555686773</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>35.91415382428755</v>
+        <v>-4.090216765898674</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>35.91415382428755</v>
+        <v>13.00942718288371</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>35.91415382428755</v>
+        <v>19.34651714527337</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>35.91415382428755</v>
+        <v>13.00189480358478</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>35.91415382428755</v>
+        <v>21.3107512142422</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>35.91415382428755</v>
+        <v>26.19679106856148</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>35.91415382428755</v>
+        <v>31.42567741808938</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>35.91415382428755</v>
+        <v>38.05248111156783</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>35.91415382428755</v>
+        <v>43.56855798248063</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>35.91415382428755</v>
+        <v>7.325226745231419</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>35.91415382428755</v>
+        <v>32.78921555951268</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>35.91415382428755</v>
+        <v>39.91499626357205</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>35.91415382428755</v>
+        <v>-15.98260535053186</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>35.91415382428755</v>
+        <v>24.69788159462979</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>35.91415382428755</v>
+        <v>33.56794148843147</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>35.91415382428755</v>
+        <v>1.113993866380781</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.91415382428755</v>
+        <v>18.21733359212755</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>35.91415382428755</v>
+        <v>24.55727226451614</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>35.91415382428755</v>
+        <v>18.21221451931814</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>35.91415382428755</v>
+        <v>26.52401288060327</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>35.91415382428755</v>
+        <v>31.41250088419298</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>35.91415382428755</v>
+        <v>36.63916481304892</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>35.91415382428755</v>
+        <v>43.26732642632402</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>35.91415382428755</v>
+        <v>48.78514915694592</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>35.91415382428755</v>
+        <v>12.53760435214309</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.91415382428755</v>
+        <v>38.00718728306111</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>35.91415382428755</v>
+        <v>45.13534982932816</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>35.91415382428755</v>
+        <v>-2.137219251344561</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>35.91415382428755</v>
+        <v>38.54456158609509</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>35.91415382428755</v>
+        <v>47.41458762223061</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>35.91415382428755</v>
+        <v>14.96562727565282</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.91415382428755</v>
+        <v>32.07028726496509</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>35.91415382428755</v>
+        <v>38.41047219710077</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>35.91415382428755</v>
+        <v>32.06577732489205</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>35.91415382428755</v>
+        <v>40.37875702500065</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>35.91415382428755</v>
+        <v>45.26753571465048</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>35.91415382428755</v>
+        <v>50.5001108149375</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>35.91415382428755</v>
+        <v>57.12865295842317</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>35.91415382428755</v>
+        <v>62.64679882785668</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>35.91415382428755</v>
+        <v>26.39635431231301</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>35.91415382428755</v>
+        <v>51.86762079954138</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>35.91415382428755</v>
+        <v>58.99606128190038</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>35.91415382428755</v>
+        <v>-10.1610125633411</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>35.91415382428755</v>
+        <v>30.51691257846591</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>35.91415382428755</v>
+        <v>39.38308021156041</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>35.91415382428755</v>
+        <v>6.941976953643859</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>35.91415382428755</v>
+        <v>24.0430409237062</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>35.91415382428755</v>
+        <v>30.37944655039934</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>35.91415382428755</v>
+        <v>24.03514169560384</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>35.91415382428755</v>
+        <v>32.34507709120356</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.91415382428755</v>
+        <v>37.23047226947011</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>35.91415382428755</v>
+        <v>42.46021771929151</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>35.91415382428755</v>
+        <v>49.0875033050491</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>35.91415382428755</v>
+        <v>54.60325948465089</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>35.91415382428755</v>
+        <v>18.35818106872608</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>35.91415382428755</v>
+        <v>43.82380857967843</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>35.91415382428755</v>
+        <v>50.94890524299882</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>35.91415382428755</v>
+        <v>-4.950860087949138</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.91415382428755</v>
+        <v>35.73171635861291</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>35.91415382428755</v>
+        <v>44.60119605119763</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>35.91415382428755</v>
+        <v>12.14718746899365</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>35.91415382428755</v>
+        <v>29.25194731915479</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>35.91415382428755</v>
+        <v>35.5912015218517</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>35.91415382428755</v>
+        <v>29.24646150543589</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>35.91415382428755</v>
+        <v>37.55933892538854</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>35.91415382428755</v>
+        <v>42.44718213156176</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>35.91415382428755</v>
+        <v>47.67470531844793</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>35.91415382428755</v>
+        <v>54.30334884695259</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>35.91415382428755</v>
+        <v>59.8208508553617</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>35.91415382428755</v>
+        <v>23.5715590381995</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>35.91415382428755</v>
+        <v>49.04278080229648</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>35.91415382428755</v>
+        <v>56.17025917250345</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>35.91415382428755</v>
+        <v>8.893841452670983</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>35.91415382428755</v>
+        <v>49.57771176743853</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>35.91415382428755</v>
+        <v>58.44715763021242</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.91415382428755</v>
+        <v>25.99813641950351</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>35.91415382428755</v>
+        <v>43.1042165277193</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>35.91415382428755</v>
+        <v>49.44371700334779</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>35.91415382428755</v>
+        <v>43.09933984156697</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>35.91415382428755</v>
+        <v>51.41339859904366</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>35.91415382428755</v>
+        <v>56.30153249967071</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>35.91415382428755</v>
+        <v>61.5349670076418</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>35.91415382428755</v>
+        <v>68.16399105935108</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>35.91415382428755</v>
+        <v>73.68181617944646</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>35.91415382428755</v>
+        <v>37.42962460730081</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>35.91415382428755</v>
+        <v>62.90252995190605</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>35.91415382428755</v>
+        <v>70.03028626461213</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>35.91415382428755</v>
+        <v>-22.37566847411216</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>35.91415382428755</v>
+        <v>18.30139556758905</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>35.91415382428755</v>
+        <v>27.16784169551812</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>35.91415382428755</v>
+        <v>-5.273728527500168</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>35.91415382428755</v>
+        <v>11.82643853361202</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>35.91415382428755</v>
+        <v>18.16313351694299</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>35.91415382428755</v>
+        <v>11.81884483508503</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>35.91415382428755</v>
+        <v>20.12796453551124</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>35.91415382428755</v>
+        <v>25.01362260029015</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>35.91415382428755</v>
+        <v>30.24343627406932</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>35.91415382428755</v>
+        <v>36.87042334492702</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>35.91415382428755</v>
+        <v>42.3862822044369</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>35.91415382428755</v>
+        <v>6.142344820473397</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>35.91415382428755</v>
+        <v>31.60705455120382</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>35.91415382428755</v>
+        <v>38.73244447564463</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>35.91415382428755</v>
+        <v>-17.16848150474181</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>35.91415382428755</v>
+        <v>23.51323376447471</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>35.91415382428755</v>
+        <v>32.38299206803009</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>35.91415382428755</v>
+        <v>-0.07148375451396305</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>35.91415382428755</v>
+        <v>17.0323791025574</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>35.91415382428755</v>
+        <v>23.37192278951039</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>35.91415382428755</v>
+        <v>17.02719876627231</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>35.91415382428755</v>
+        <v>25.339260412741</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>35.91415382428755</v>
+        <v>30.22736662518838</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>35.91415382428755</v>
+        <v>35.45495801802264</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.91415382428755</v>
+        <v>42.08330301766165</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>35.91415382428755</v>
+        <v>47.60090773747316</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>35.91415382428755</v>
+        <v>11.35275689160068</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>35.91415382428755</v>
+        <v>36.82306081016083</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>35.91415382428755</v>
+        <v>43.95083254456932</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>35.91415382428755</v>
+        <v>-3.322161074446115</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>35.91415382428755</v>
+        <v>37.36084815117528</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>35.91415382428755</v>
+        <v>46.23057258430305</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>35.91415382428755</v>
+        <v>13.78108409909299</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>35.91415382428755</v>
+        <v>30.88626728896105</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>35.91415382428755</v>
+        <v>37.22605722460872</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>35.91415382428755</v>
+        <v>30.88169610936239</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>35.91415382428755</v>
+        <v>39.19493915769846</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>35.91415382428755</v>
+        <v>44.08333604706223</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>35.91415382428755</v>
+        <v>49.31683866858299</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>35.91415382428755</v>
+        <v>55.94556419935606</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>35.91415382428755</v>
+        <v>61.46349203436279</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>35.91415382428755</v>
+        <v>25.21244136535046</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>35.91415382428755</v>
+        <v>50.6844289215789</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>35.91415382428755</v>
+        <v>57.81247857158797</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>35.91415382428755</v>
+        <v>-27.50240348217829</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>35.91415382428755</v>
+        <v>13.17304000325936</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>35.91415382428755</v>
+        <v>22.0391828688301</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>35.91415382428755</v>
+        <v>-10.4016717008912</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>35.91415382428755</v>
+        <v>6.697652924092438</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>35.91415382428755</v>
+        <v>13.03407833331499</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>35.91415382428755</v>
+        <v>6.690069959370305</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>35.91415382428755</v>
+        <v>14.99866593128269</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>35.91415382428755</v>
+        <v>19.88409372141251</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>35.91415382428755</v>
+        <v>25.11390438668553</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>35.91415382428755</v>
+        <v>31.74058730833707</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>35.91415382428755</v>
+        <v>37.2563056830075</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>35.91415382428755</v>
+        <v>1.013944408184045</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>35.91415382428755</v>
+        <v>26.47751777028685</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>35.91415382428755</v>
+        <v>33.60261344653128</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>35.91415382428755</v>
+        <v>-22.29469564323409</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>35.91415382428755</v>
+        <v>18.38539893016576</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>35.91415382428755</v>
+        <v>27.25485387373084</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>35.91415382428755</v>
+        <v>-5.198905802776665</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>35.91415382428755</v>
+        <v>11.90411449761126</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>35.91415382428755</v>
+        <v>18.24338853060436</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>35.91415382428755</v>
+        <v>11.89894485125745</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>35.91415382428755</v>
+        <v>20.21048266971337</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>35.91415382428755</v>
+        <v>25.09835853917917</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>35.91415382428755</v>
+        <v>30.32594703077444</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>35.91415382428755</v>
+        <v>36.95398783652723</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>35.91415382428755</v>
+        <v>42.47145203350061</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>35.91415382428755</v>
+        <v>6.22487738733804</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>35.91415382428755</v>
+        <v>31.69404474918844</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>35.91415382428755</v>
+        <v>38.82152217906906</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>35.91415382428755</v>
+        <v>-8.448746598449986</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>35.91415382428755</v>
+        <v>32.23264189011144</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.91415382428755</v>
+        <v>41.10206298242707</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>35.91415382428755</v>
+        <v>8.653290454289447</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>35.91415382428755</v>
+        <v>25.75763104663162</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>35.91415382428755</v>
+        <v>32.09715133039759</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>35.91415382428755</v>
+        <v>25.75307055119373</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.91415382428755</v>
+        <v>34.06578973549671</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>35.91415382428755</v>
+        <v>38.95395627932618</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>35.91415382428755</v>
+        <v>44.18745580181775</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>35.91415382428755</v>
+        <v>50.81587712042978</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>35.91415382428755</v>
+        <v>56.3336644278383</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>35.91415382428755</v>
+        <v>20.0841900302043</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>35.91415382428755</v>
+        <v>45.55504097553597</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>35.91415382428755</v>
+        <v>52.682796322059</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>35.91415382428755</v>
+        <v>-13.0020602426078</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>35.91415382428755</v>
+        <v>27.67680926470956</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>35.91415382428755</v>
+        <v>36.54403380106947</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>35.91415382428755</v>
+        <v>4.101930290418579</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>35.91415382428755</v>
+        <v>21.20289290242937</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>35.91415382428755</v>
+        <v>27.54021539312936</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>35.91415382428755</v>
+        <v>21.19540394532277</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.91415382428755</v>
+        <v>29.50494226117161</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>35.91415382428755</v>
+        <v>34.39111228369944</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.91415382428755</v>
+        <v>39.62088902962495</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>35.91415382428755</v>
+        <v>46.24816920243046</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>35.91415382428755</v>
+        <v>51.76459780641568</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>35.91415382428755</v>
+        <v>15.51913352807679</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>35.91415382428755</v>
+        <v>40.98486034584749</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>35.91415382428755</v>
+        <v>48.11097560276659</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>35.91415382428755</v>
+        <v>-7.792401146315058</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>35.91415382428755</v>
+        <v>32.89111974112944</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>35.91415382428755</v>
+        <v>41.76165658634028</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>35.91415382428755</v>
+        <v>9.306647152208768</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>35.91415382428755</v>
+        <v>26.4113057831118</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>35.91415382428755</v>
+        <v>32.75147701914563</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>35.91415382428755</v>
+        <v>26.40623016028172</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>35.91415382428755</v>
+        <v>34.71871063651366</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.91415382428755</v>
+        <v>39.60732881959285</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>35.91415382428755</v>
+        <v>44.83488294646105</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>35.91415382428755</v>
+        <v>51.46352111144967</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>35.91415382428755</v>
+        <v>56.98169565399513</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>35.91415382428755</v>
+        <v>20.73201760149988</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>35.91415382428755</v>
+        <v>46.20333890996591</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>35.91415382428755</v>
+        <v>53.33183599854311</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>35.91415382428755</v>
+        <v>6.052718369769593</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.91415382428755</v>
+        <v>46.73753314883544</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>35.91415382428755</v>
+        <v>55.60803614441585</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>35.91415382428755</v>
+        <v>23.15801441496882</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>35.91415382428755</v>
+        <v>40.26399329011787</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.91415382428755</v>
+        <v>46.60441081754749</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>35.91415382428755</v>
+        <v>40.25952687288867</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>35.91415382428755</v>
+        <v>48.57318866463191</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>35.91415382428755</v>
+        <v>53.46209756756508</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>35.91415382428755</v>
+        <v>58.69556342530035</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>35.91415382428755</v>
+        <v>65.32458209699706</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>35.91415382428755</v>
+        <v>70.84307980936359</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>35.91415382428755</v>
+        <v>34.59050187465067</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>35.91415382428755</v>
+        <v>60.06350676116523</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>35.91415382428755</v>
+        <v>67.19228181682359</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>35.91415382428755</v>
+        <v>-12.20595962608678</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>35.91415382428755</v>
+        <v>28.47152648467517</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.91415382428755</v>
+        <v>37.33809628452383</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>35.91415382428755</v>
+        <v>4.896840670746258</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>35.91415382428755</v>
+        <v>21.99751491509727</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>35.91415382428755</v>
+        <v>28.33434123378726</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>35.91415382428755</v>
+        <v>21.98979881950851</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>35.91415382428755</v>
+        <v>30.2993945486142</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>35.91415382428755</v>
+        <v>35.18517118835399</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>35.91415382428755</v>
+        <v>40.41450778033749</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>35.91415382428755</v>
+        <v>47.04169146860289</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.91415382428755</v>
+        <v>52.5576328080727</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>35.91415382428755</v>
+        <v>16.31280150685024</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.91415382428755</v>
+        <v>41.77807796022802</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>35.91415382428755</v>
+        <v>48.90362417590478</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>35.91415382428755</v>
+        <v>-6.999481771454214</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.91415382428755</v>
+        <v>33.68265555097304</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.91415382428755</v>
+        <v>42.55253750961839</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>35.91415382428755</v>
+        <v>10.09837630285625</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>35.91415382428755</v>
+        <v>27.20274634882259</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>35.91415382428755</v>
+        <v>33.54242134565294</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>35.91415382428755</v>
+        <v>27.1974435994851</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>35.91415382428755</v>
+        <v>35.50998128652424</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>35.91415382428755</v>
+        <v>40.39820604700373</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>35.91415382428755</v>
+        <v>45.62532037868931</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>35.91415382428755</v>
+        <v>52.25386199715325</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>35.91415382428755</v>
+        <v>57.77154920082995</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>35.91415382428755</v>
+        <v>21.52250449427237</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>35.91415382428755</v>
+        <v>46.9933751209939</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>35.91415382428755</v>
+        <v>54.12130314228608</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>35.91415382428755</v>
+        <v>6.845625118821033</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>35.91415382428755</v>
+        <v>47.52905633311633</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.91415382428755</v>
+        <v>56.39890444587724</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.91415382428755</v>
+        <v>23.94973066533674</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>35.91415382428755</v>
+        <v>41.05542098377003</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>35.91415382428755</v>
+        <v>47.39534224729283</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>35.91415382428755</v>
+        <v>41.0507273475277</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>35.91415382428755</v>
+        <v>49.36444638251982</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>35.91415382428755</v>
+        <v>54.25296183449478</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>35.91415382428755</v>
+        <v>59.48598748521005</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>35.91415382428755</v>
+        <v>66.11490963499824</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>35.91415382428755</v>
+        <v>71.63291995672745</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>35.91415382428755</v>
+        <v>35.38097548760192</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>35.91415382428755</v>
+        <v>60.85352969885884</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>35.91415382428755</v>
+        <v>67.98173565249618</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>35.91415382428755</v>
+        <v>-2.966398644446883</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>35.91415382428755</v>
+        <v>37.71394859393166</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.91415382428755</v>
+        <v>46.58105010874107</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>35.91415382428755</v>
+        <v>14.13923739608816</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>35.91415382428755</v>
+        <v>31.24136525417151</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>35.91415382428755</v>
+        <v>37.57853634634586</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.91415382428755</v>
+        <v>31.23336709417919</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>35.91415382428755</v>
+        <v>39.54385684165987</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>35.91415382428755</v>
+        <v>44.42988034876322</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>35.91415382428755</v>
+        <v>49.65962525948083</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>35.91415382428755</v>
+        <v>56.28734982285681</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>35.91415382428755</v>
+        <v>61.80373179369741</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.91415382428755</v>
+        <v>25.55674660995118</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>35.91415382428755</v>
+        <v>51.02381442331483</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>35.91415382428755</v>
+        <v>58.14981456857453</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>35.91415382428755</v>
+        <v>2.243728824466245</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>35.91415382428755</v>
+        <v>42.92872754064575</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>35.91415382428755</v>
+        <v>51.79914133848212</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>35.91415382428755</v>
+        <v>19.34442258963253</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>35.91415382428755</v>
+        <v>36.45024656678578</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>35.91415382428755</v>
+        <v>42.79026636171062</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>35.91415382428755</v>
+        <v>36.44466173775021</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>35.91415382428755</v>
+        <v>44.75809373482792</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>35.91415382428755</v>
+        <v>49.6465653591452</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>35.91415382428755</v>
+        <v>54.87408759896329</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>35.91415382428755</v>
+        <v>61.503170196094</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>35.91415382428755</v>
+        <v>67.02129811735171</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>35.91415382428755</v>
+        <v>30.77009915173193</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>35.91415382428755</v>
+        <v>56.24276158378774</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>35.91415382428755</v>
+        <v>63.37114352112604</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>35.91415382428755</v>
+        <v>16.08791770745216</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>35.91415382428755</v>
+        <v>56.77421026933467</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.91415382428755</v>
+        <v>65.64459021829776</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>35.91415382428755</v>
+        <v>33.19485928399064</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>35.91415382428755</v>
+        <v>50.30200347164765</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>35.91415382428755</v>
+        <v>56.64226955561224</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>35.91415382428755</v>
+        <v>50.29702782050089</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>35.91415382428755</v>
+        <v>58.61164110507383</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>35.91415382428755</v>
+        <v>63.5004034470972</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>35.91415382428755</v>
+        <v>68.73383755369747</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>35.91415382428755</v>
+        <v>75.36330064991586</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>35.91415382428755</v>
+        <v>80.8817517168448</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>35.91415382428755</v>
+        <v>44.62765291947204</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>35.91415382428755</v>
+        <v>70.10199890601046</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>35.91415382428755</v>
+        <v>77.2306588063995</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>35.91415382428755</v>
+        <v>-7.960573155279633</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>35.91415382428755</v>
+        <v>32.71768210393822</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>35.91415382428755</v>
+        <v>41.58467336633004</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>35.91415382428755</v>
+        <v>9.143901306541864</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>35.91415382428755</v>
+        <v>26.2447596889312</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>35.91415382428755</v>
+        <v>32.58186333665145</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>35.91415382428755</v>
+        <v>26.23700973498461</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>35.91415382428755</v>
+        <v>34.54660903752023</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>35.91415382428755</v>
+        <v>39.43258717685086</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>35.91415382428755</v>
+        <v>44.6621914769085</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>35.91415382428755</v>
+        <v>51.28938640769348</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>35.91415382428755</v>
+        <v>56.80570322099112</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.91415382428755</v>
+        <v>20.56072593153505</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>35.91415382428755</v>
+        <v>46.02614130924854</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>35.91415382428755</v>
+        <v>53.15204102741933</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>35.91415382428755</v>
+        <v>-2.749897824795596</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>35.91415382428755</v>
+        <v>37.93300872269793</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>35.91415382428755</v>
+        <v>46.80331219262831</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>35.91415382428755</v>
+        <v>14.34963465977063</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>35.91415382428755</v>
+        <v>31.45418900988153</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>35.91415382428755</v>
+        <v>37.79414129065509</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>35.91415382428755</v>
+        <v>31.44885230587346</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>35.91415382428755</v>
+        <v>39.76139373756104</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>35.91415382428755</v>
+        <v>44.64981993276234</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>35.91415382428755</v>
+        <v>49.87720160962243</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>35.91415382428755</v>
+        <v>56.50575449945694</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>35.91415382428755</v>
+        <v>62.02381721969078</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>35.91415382428755</v>
+        <v>25.77462624319463</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>35.91415382428755</v>
+        <v>51.24563600986488</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.91415382428755</v>
+        <v>58.37391746087434</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>35.91415382428755</v>
+        <v>11.09391656141776</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>35.91415382428755</v>
+        <v>51.77811691265885</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>35.91415382428755</v>
+        <v>60.64838654201191</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>35.91415382428755</v>
+        <v>28.19969667504012</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>35.91415382428755</v>
+        <v>45.30557118066764</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>35.91415382428755</v>
+        <v>51.6457697514532</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>35.91415382428755</v>
+        <v>45.30084365394185</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>35.91415382428755</v>
+        <v>53.61456632022617</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>35.91415382428755</v>
+        <v>58.50328323131436</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>35.91415382428755</v>
+        <v>63.73657661079579</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>35.91415382428755</v>
+        <v>70.365509980289</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>35.91415382428755</v>
+        <v>75.88389585604688</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>35.91415382428755</v>
+        <v>39.6318051074914</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.91415382428755</v>
+        <v>65.10449836475101</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>35.91415382428755</v>
+        <v>72.2330577829037</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>35.91415382428755</v>
+        <v>-9.819018782582646</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>35.91415382428755</v>
+        <v>30.86070879857056</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>35.91415382428755</v>
+        <v>39.72773615840293</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>35.91415382428755</v>
+        <v>7.285234875447429</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.91415382428755</v>
+        <v>24.38698720020119</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>35.91415382428755</v>
+        <v>30.72414561178567</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>35.91415382428755</v>
+        <v>24.3791537981669</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>35.91415382428755</v>
+        <v>32.68937208783808</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>35.91415382428755</v>
+        <v>37.57540645330215</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>35.91415382428755</v>
+        <v>42.80501168953396</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>35.91415382428755</v>
+        <v>49.43257384220982</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>35.91415382428755</v>
+        <v>54.94883402432816</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>35.91415382428755</v>
+        <v>18.70202645902492</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>35.91415382428755</v>
+        <v>44.16875644289513</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>35.91415382428755</v>
+        <v>51.29467731927735</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>35.91415382428755</v>
+        <v>-4.611436130766208</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>35.91415382428755</v>
+        <v>36.07294289330838</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.91415382428755</v>
+        <v>44.94328253516534</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>35.91415382428755</v>
+        <v>12.48787510973972</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>35.91415382428755</v>
+        <v>29.5933234611669</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.91415382428755</v>
+        <v>35.93333062453672</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>35.91415382428755</v>
+        <v>29.58790345117114</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>35.91415382428755</v>
+        <v>37.90106389577005</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>35.91415382428755</v>
+        <v>42.78954643551066</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>35.91415382428755</v>
+        <v>48.01692919050316</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>35.91415382428755</v>
+        <v>54.64584933586076</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>35.91415382428755</v>
+        <v>60.16385544826954</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>35.91415382428755</v>
+        <v>23.9128342651565</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>35.91415382428755</v>
+        <v>49.38515873129239</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>35.91415382428755</v>
+        <v>56.51346146384793</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>35.91415382428755</v>
+        <v>9.233482677071436</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.91415382428755</v>
+        <v>49.91915559302953</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>35.91415382428755</v>
+        <v>58.78946140600038</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>35.91415382428755</v>
+        <v>26.33904172497427</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>35.91415382428755</v>
+        <v>43.44581034565061</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>35.91415382428755</v>
+        <v>49.78606380575917</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>35.91415382428755</v>
+        <v>43.4409994844296</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>35.91415382428755</v>
+        <v>51.75534127229781</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>35.91415382428755</v>
+        <v>56.64411453328438</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>35.91415382428755</v>
+        <v>61.87740900160833</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>35.91415382428755</v>
+        <v>68.50670968710432</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>35.91415382428755</v>
+        <v>74.02503895473109</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>35.91415382428755</v>
+        <v>37.77111790857037</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>35.91415382428755</v>
+        <v>63.24512598055315</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>35.91415382428755</v>
+        <v>70.37370668302748</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>35.91415382428755</v>
+        <v>-16.4651729455806</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>35.91415382428755</v>
+        <v>24.21164239094088</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.91415382428755</v>
+        <v>33.07848580397359</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>35.91415382428755</v>
+        <v>0.637531598488124</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>35.91415382428755</v>
+        <v>17.7376382120238</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>35.91415382428755</v>
+        <v>24.07472388709976</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>35.91415382428755</v>
+        <v>17.72998332918786</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>35.91415382428755</v>
+        <v>26.0391101246318</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>35.91415382428755</v>
+        <v>30.92511098743472</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>35.91415382428755</v>
+        <v>36.154208046983</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>35.91415382428755</v>
+        <v>42.78114916458702</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>35.91415382428755</v>
+        <v>48.29737184977904</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>35.91415382428755</v>
+        <v>12.05361251816129</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>35.91415382428755</v>
+        <v>37.51808654307905</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>35.91415382428755</v>
+        <v>44.64394464669141</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>35.91415382428755</v>
+        <v>-11.25261212686536</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>35.91415382428755</v>
+        <v>29.42885446672864</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>35.91415382428755</v>
+        <v>38.29901007523159</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>35.91415382428755</v>
+        <v>5.845150634264598</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>35.91415382428755</v>
+        <v>22.94895317498612</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>35.91415382428755</v>
+        <v>29.28888752109339</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>35.91415382428755</v>
+        <v>22.94371156277344</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>35.91415382428755</v>
+        <v>31.25578044929267</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>35.91415382428755</v>
+        <v>36.14422941511867</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>35.91415382428755</v>
+        <v>41.37110385915418</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>35.91415382428755</v>
+        <v>47.99940293362675</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>35.91415382428755</v>
+        <v>53.51737149599381</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>35.91415382428755</v>
+        <v>17.26939837518654</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>35.91415382428755</v>
+        <v>42.73946673174333</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>35.91415382428755</v>
+        <v>49.86770661733573</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>35.91415382428755</v>
+        <v>2.591860429087149</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>35.91415382428755</v>
+        <v>43.2746208618567</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>35.91415382428755</v>
+        <v>52.14474262908476</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>35.91415382428755</v>
+        <v>19.69587056058111</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>35.91415382428755</v>
+        <v>36.80099330127399</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.91415382428755</v>
+        <v>43.14117393024213</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>35.91415382428755</v>
+        <v>36.79636086240322</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>35.91415382428755</v>
+        <v>45.10961102815764</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>35.91415382428755</v>
+        <v>49.99835070173577</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>35.91415382428755</v>
+        <v>55.2311365344238</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>35.91415382428755</v>
+        <v>61.8598161052127</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>35.91415382428755</v>
+        <v>67.37810783415154</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>35.91415382428755</v>
+        <v>31.1272349821898</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>35.91415382428755</v>
+        <v>56.59898683951491</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>35.91415382428755</v>
+        <v>63.72750469573288</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>35.91415382428755</v>
+        <v>-9.3572560936895</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>35.91415382428755</v>
+        <v>31.3207731587184</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>35.91415382428755</v>
+        <v>40.18782419997598</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>35.91415382428755</v>
+        <v>7.74703554733702</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>35.91415382428755</v>
+        <v>24.84773058107459</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>35.91415382428755</v>
+        <v>31.1848978089111</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>35.91415382428755</v>
+        <v>24.8400192419237</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>35.91415382428755</v>
+        <v>33.1494902801457</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>35.91415382428755</v>
+        <v>38.03552690319049</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>35.91415382428755</v>
+        <v>43.26507249673767</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>35.91415382428755</v>
+        <v>49.89221697332886</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>35.91415382428755</v>
+        <v>55.40856358314335</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>35.91415382428755</v>
+        <v>19.16379371118313</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>35.91415382428755</v>
+        <v>44.62902314115394</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>35.91415382428755</v>
+        <v>51.75498250103311</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>35.91415382428755</v>
+        <v>-4.146683402308952</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>35.91415382428755</v>
+        <v>36.53599712226611</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>35.91415382428755</v>
+        <v>45.40636039109296</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>35.91415382428755</v>
+        <v>12.95266627025848</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>35.91415382428755</v>
+        <v>30.05705726018977</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>35.91415382428755</v>
+        <v>36.39707314133176</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>35.91415382428755</v>
+        <v>30.05175915849674</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>35.91415382428755</v>
+        <v>38.36417231695538</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>35.91415382428755</v>
+        <v>43.25265701419181</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>35.91415382428755</v>
+        <v>48.47997996801854</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>35.91415382428755</v>
+        <v>55.10848240251897</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>35.91415382428755</v>
+        <v>60.62657492434511</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>35.91415382428755</v>
+        <v>24.37759134461083</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>35.91415382428755</v>
+        <v>49.84841515125999</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>35.91415382428755</v>
+        <v>56.97675626369374</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>35.91415382428755</v>
+        <v>9.697248528651414</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>35.91415382428755</v>
+        <v>50.38122286278161</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>35.91415382428755</v>
+        <v>59.2515522879583</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>35.91415382428755</v>
+        <v>26.80284581426969</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>35.91415382428755</v>
+        <v>43.90855696358909</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>35.91415382428755</v>
+        <v>50.24881913336964</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>35.91415382428755</v>
+        <v>43.90386804312431</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>35.91415382428755</v>
+        <v>52.21746243944477</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>35.91415382428755</v>
+        <v>57.10623785180513</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>35.91415382428755</v>
+        <v>62.3394724888422</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>35.91415382428755</v>
+        <v>68.96835540373053</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>35.91415382428755</v>
+        <v>74.48677108382873</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>35.91415382428755</v>
+        <v>38.23488773251773</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>35.91415382428755</v>
+        <v>63.70739502981206</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>35.91415382428755</v>
+        <v>70.83601410962882</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>35.91415382428755</v>
+        <v>-6.762418810274482</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>35.91415382428755</v>
+        <v>33.9154739754386</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>35.91415382428755</v>
+        <v>42.78198454677141</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>35.91415382428755</v>
+        <v>10.34190957989432</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>35.91415382428755</v>
+        <v>27.44273168065848</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>35.91415382428755</v>
+        <v>33.77950752456564</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>35.91415382428755</v>
+        <v>27.43502194935871</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>35.91415382428755</v>
+        <v>35.74468790903182</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>35.91415382428755</v>
+        <v>40.63041772039679</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>35.91415382428755</v>
+        <v>45.8600083625692</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>35.91415382428755</v>
+        <v>52.48707564748173</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>35.91415382428755</v>
+        <v>58.00306089489681</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>35.91415382428755</v>
+        <v>21.75832463823309</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>35.91415382428755</v>
+        <v>47.22361069340405</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>35.91415382428755</v>
+        <v>54.34916069977936</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>35.91415382428755</v>
+        <v>-1.553213532071311</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.91415382428755</v>
+        <v>39.12933048897941</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>35.91415382428755</v>
+        <v>47.99915315675668</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>35.91415382428755</v>
+        <v>15.5461726976194</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>35.91415382428755</v>
+        <v>32.65069068701183</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>35.91415382428755</v>
+        <v>38.99031509797993</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>35.91415382428755</v>
+        <v>32.64539425059235</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>35.91415382428755</v>
+        <v>40.95800226340799</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>35.91415382428755</v>
+        <v>45.84618008476156</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>35.91415382428755</v>
+        <v>51.07354824302507</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>35.91415382428755</v>
+        <v>57.70197344313164</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>35.91415382428755</v>
+        <v>63.21970451968053</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>35.91415382428755</v>
+        <v>26.97075476447441</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>35.91415382428755</v>
+        <v>52.44163509752121</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>35.91415382428755</v>
+        <v>59.56956676185035</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>35.91415382428755</v>
+        <v>12.2907855666403</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>35.91415382428755</v>
+        <v>52.97462342852435</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>35.91415382428755</v>
+        <v>61.84441222738411</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>35.91415382428755</v>
+        <v>29.3964192694196</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>35.91415382428755</v>
+        <v>46.50225746227198</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>35.91415382428755</v>
+        <v>52.84212813229607</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>35.91415382428755</v>
+        <v>46.49757016006794</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>35.91415382428755</v>
+        <v>54.81135945417651</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>35.91415382428755</v>
+        <v>59.69982796405276</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>35.91415382428755</v>
+        <v>64.93310758130764</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>35.91415382428755</v>
+        <v>71.56191328327265</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>35.91415382428755</v>
+        <v>77.07996748598583</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>35.91415382428755</v>
+        <v>40.8281180145911</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>35.91415382428755</v>
+        <v>66.30068188064348</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>35.91415382428755</v>
+        <v>73.4288914730509</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>35.91415382428755</v>
+        <v>-8.639823986015301</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>35.91415382428755</v>
+        <v>32.03981131276186</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>35.91415382428755</v>
+        <v>40.90680702460446</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>35.91415382428755</v>
+        <v>8.46459385854547</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>35.91415382428755</v>
+        <v>25.56636651897094</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>35.91415382428755</v>
+        <v>31.90349401081704</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>35.91415382428755</v>
+        <v>25.55845862565724</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>35.91415382428755</v>
+        <v>33.86872968489132</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>35.91415382428755</v>
+        <v>38.75473633614666</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>35.91415382428755</v>
+        <v>43.9842810827019</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>35.91415382428755</v>
+        <v>50.61183346722504</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>35.91415382428755</v>
+        <v>56.12808503965601</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>35.91415382428755</v>
+        <v>19.88134473432154</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>35.91415382428755</v>
+        <v>45.34804608913799</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>35.91415382428755</v>
+        <v>52.47393739174305</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>35.91415382428755</v>
+        <v>-3.432194576153677</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>35.91415382428755</v>
+        <v>37.25209214050943</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>35.91415382428755</v>
+        <v>46.12240012168814</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>35.91415382428755</v>
+        <v>13.66728087817609</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>35.91415382428755</v>
+        <v>30.77274955666684</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>35.91415382428755</v>
+        <v>37.11272578347763</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>35.91415382428755</v>
+        <v>30.76725502473704</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>35.91415382428755</v>
+        <v>39.08046823460376</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>35.91415382428755</v>
+        <v>43.96892304405293</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>35.91415382428755</v>
+        <v>49.19624528669914</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>35.91415382428755</v>
+        <v>55.82515565623368</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>35.91415382428755</v>
+        <v>61.34315315555313</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>35.91415382428755</v>
+        <v>25.0921992419498</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>35.91415382428755</v>
+        <v>50.5644950611258</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>35.91415382428755</v>
+        <v>57.69276820144472</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>35.91415382428755</v>
+        <v>10.41236230982787</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>35.91415382428755</v>
+        <v>51.09794288926838</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>35.91415382428755</v>
+        <v>59.96821704853545</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>35.91415382428755</v>
+        <v>27.51808554044391</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>35.91415382428755</v>
+        <v>44.62487445741743</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>35.91415382428755</v>
+        <v>50.96509698626238</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>35.91415382428755</v>
+        <v>44.61998907443893</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>35.91415382428755</v>
+        <v>52.93438359957844</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>35.91415382428755</v>
+        <v>57.82312913453308</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>35.91415382428755</v>
+        <v>63.05636308759534</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>35.91415382428755</v>
+        <v>69.68565398948698</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>35.91415382428755</v>
+        <v>75.20397464121965</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>35.91415382428755</v>
+        <v>38.95012089706535</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>35.91415382428755</v>
+        <v>64.42410028891373</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>35.91415382428755</v>
+        <v>71.55265140728972</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-11.79518906173934</v>
+        <v>-11.79518906175025</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.88365791751954</v>
+        <v>28.88365791753364</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>37.75092834821072</v>
+        <v>37.75092834819526</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5.309065745471287</v>
+        <v>5.309065745485043</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.41009709024382</v>
+        <v>22.41009709029419</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.74745784023122</v>
+        <v>28.74745784027442</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>22.40242003929274</v>
+        <v>22.40242003926966</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.71204804975099</v>
+        <v>30.71204804976611</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>35.59824917693032</v>
+        <v>35.59824917697489</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>40.8278411233992</v>
+        <v>40.82784112342375</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>47.45513374635976</v>
+        <v>47.45513374639069</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>52.97162437962658</v>
+        <v>52.97162437962839</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.72609594741328</v>
+        <v>16.72609594741692</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>42.19185578611194</v>
+        <v>42.19185578611558</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>49.31802381335257</v>
+        <v>49.31802381336348</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-6.583273880570289</v>
+        <v>-6.58327388054505</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34.10022451466529</v>
+        <v>34.10022451466847</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>42.97080726546625</v>
+        <v>42.97080726543237</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.51603886061702</v>
+        <v>10.51603886069512</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.62076627987261</v>
+        <v>27.62076627988637</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33.96097577329743</v>
+        <v>33.96097577329175</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>27.61550256973391</v>
+        <v>27.61550256982986</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>35.92807279649668</v>
+        <v>35.9280727964894</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>40.81672207821526</v>
+        <v>40.81672207822118</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>46.04409129625668</v>
+        <v>46.04409129631159</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>52.67274192703479</v>
+        <v>52.67274192698056</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>58.19097851091743</v>
+        <v>58.19097851095393</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.94123618719703</v>
+        <v>21.94123618724785</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>47.41259057318274</v>
+        <v>47.41259057320286</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>54.54114043444775</v>
+        <v>54.5411404343825</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>7.261333535531264</v>
+        <v>7.261333535579809</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>47.9461257962875</v>
+        <v>47.94612579619644</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>56.81667469611722</v>
+        <v>56.81667469610846</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>24.36689400416714</v>
+        <v>24.36689400427628</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.47294164061128</v>
+        <v>41.47294164055671</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>47.81339742527081</v>
+        <v>47.81339742519805</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>41.46828712523262</v>
+        <v>41.46828712527821</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>49.7820386423428</v>
+        <v>49.78203864236724</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>54.67097864419935</v>
+        <v>54.67097864415172</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>59.90425962472358</v>
+        <v>59.9042596247304</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>66.53329075573998</v>
+        <v>66.53329075565995</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>72.05185050686958</v>
+        <v>72.05185050688959</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.79920833994692</v>
+        <v>35.79920833985778</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>61.27224627638606</v>
+        <v>61.27224627644108</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>68.40107410863135</v>
+        <v>68.40107410859042</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-9.998081912592681</v>
+        <v>-9.998081912608598</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.68129726173623</v>
+        <v>30.68129726172077</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.54784575811806</v>
+        <v>39.54784575813261</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.106040088835073</v>
+        <v>7.106040088880434</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>24.20780740489096</v>
+        <v>24.20780740489357</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.54455539306019</v>
+        <v>30.54455539307975</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>24.19972503489345</v>
+        <v>24.19972503488822</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>32.51006654515396</v>
+        <v>32.51006654514873</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>37.39575287476924</v>
+        <v>37.39575287470944</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>42.62549167685921</v>
+        <v>42.62549167678395</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>49.25308663707557</v>
+        <v>49.25308663706943</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>54.76904299963513</v>
+        <v>54.76904299961421</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>18.52266898504428</v>
+        <v>18.52266898500278</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>43.98929817765435</v>
+        <v>43.9892981776315</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>51.11480902843874</v>
+        <v>51.1148090283437</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-4.791349877994719</v>
+        <v>-4.791349878004723</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>35.8926806660358</v>
+        <v>35.89268066597327</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>44.76254134791844</v>
+        <v>44.76254134785182</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>12.30782970246656</v>
+        <v>12.30782970245781</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.41329295506677</v>
+        <v>29.41329295498502</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.75288962737733</v>
+        <v>35.75288962734459</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.40762397749046</v>
+        <v>29.40762397742122</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>37.72090755619598</v>
+        <v>37.72090755617586</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>42.60904200730357</v>
+        <v>42.6090420072963</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>47.83655847687254</v>
+        <v>47.83655847687334</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>54.46551142118454</v>
+        <v>54.46551142121808</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>59.98321367145985</v>
+        <v>59.98321367141324</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>23.73262619559392</v>
+        <v>23.73262619552287</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>49.20484977187317</v>
+        <v>49.20484977181326</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>56.33274241302462</v>
+        <v>56.33274241295959</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9.053857933286338</v>
+        <v>9.053857933169013</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>49.73918238375455</v>
+        <v>49.73918238370226</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>58.60900921161459</v>
+        <v>58.6090092115964</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>26.15928513124828</v>
+        <v>26.15928513124931</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.26606867941683</v>
+        <v>43.2660686794506</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>49.60591161870349</v>
+        <v>49.60591161871372</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>43.26100883607506</v>
+        <v>43.26100883601652</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>51.57547378571604</v>
+        <v>51.57547378567818</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>56.46389893097711</v>
+        <v>56.46389893092572</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>61.69732690279346</v>
+        <v>61.69732690276174</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>68.32666037623477</v>
+        <v>68.32666037623136</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>73.84468573925363</v>
+        <v>73.84468573922487</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>37.59119845176673</v>
+        <v>37.59119845179697</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>63.06510564937952</v>
+        <v>63.0651056493935</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>70.19327622393558</v>
+        <v>70.19327622392592</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-10.65910110146575</v>
+        <v>-10.65910110147985</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30.02022623831698</v>
+        <v>30.02022623828083</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>38.88667608067027</v>
+        <v>38.88667608065231</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6.444947632421815</v>
+        <v>6.444947632395099</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>23.5466292976941</v>
+        <v>23.54662929769103</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.88328734345333</v>
+        <v>29.88328734344105</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>23.53861909689869</v>
+        <v>23.53861909691847</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>31.84887380998299</v>
+        <v>31.84887380996003</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>36.73448370964462</v>
+        <v>36.73448370960983</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>41.96450059622151</v>
+        <v>41.96450059616262</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>48.59200285863557</v>
+        <v>48.59200285863034</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>54.10790551736073</v>
+        <v>54.10790551732367</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>17.86170029395106</v>
+        <v>17.86170029393367</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>43.32825098557663</v>
+        <v>43.3282509855872</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>50.45364147338415</v>
+        <v>50.4536414733023</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-5.45083215898984</v>
+        <v>-5.450832158996434</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>35.23314660454486</v>
+        <v>35.23314660447255</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.10290861651589</v>
+        <v>44.10290861649429</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>11.64827426950552</v>
+        <v>11.6482742694804</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.75365191567386</v>
+        <v>28.7536519156551</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.093158632908</v>
+        <v>35.09315863284434</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.74805513835923</v>
+        <v>28.74805513832843</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>37.06125195783267</v>
+        <v>37.06125195781186</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>41.94930996857948</v>
+        <v>41.94930996851446</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>47.17710446954192</v>
+        <v>47.17710446955545</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>53.80596470649192</v>
+        <v>53.80596470650181</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>59.32361323801678</v>
+        <v>59.32361323800029</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>23.07319450347603</v>
+        <v>23.07319450347444</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>48.54533960868633</v>
+        <v>48.54533960866655</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>55.67311187182003</v>
+        <v>55.67311187182912</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>8.394470502137494</v>
+        <v>8.394470502059391</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>49.07974318726002</v>
+        <v>49.07974318722557</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>57.9494713527086</v>
+        <v>57.94947135271076</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>25.49982457527705</v>
+        <v>25.49982457528876</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>42.60652252989127</v>
+        <v>42.60652252987092</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>48.94627552122898</v>
+        <v>48.94627552126764</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>42.60153488228462</v>
+        <v>42.6015348822753</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>50.91591308284666</v>
+        <v>50.91591308281414</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>55.80426179424359</v>
+        <v>55.8042617942188</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>61.03796778471127</v>
+        <v>61.03796778467557</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>67.66720856827482</v>
+        <v>67.66720856822081</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>73.18518021544281</v>
+        <v>73.18518021545964</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>36.93186164526168</v>
+        <v>36.9318616452843</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>62.40569039001588</v>
+        <v>62.40569038996733</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>69.53374059565596</v>
+        <v>69.53374059563481</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-16.06938654035486</v>
+        <v>-16.06938654037305</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>24.60888071596736</v>
+        <v>24.60888071598009</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>33.47593114471243</v>
+        <v>33.47593114457783</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1.034240261101957</v>
+        <v>1.034240261127763</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>18.13488550063647</v>
+        <v>18.13488550058383</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.47200484659248</v>
+        <v>24.47200484658362</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>18.12725557326354</v>
+        <v>18.1272555732566</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>26.43659629595601</v>
+        <v>26.43659629598886</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31.32257551940353</v>
+        <v>31.32257551935805</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.55246322436682</v>
+        <v>36.55246322434056</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>43.17962024548223</v>
+        <v>43.17962024544983</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>48.69598465191081</v>
+        <v>48.69598465190376</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>12.45124576134702</v>
+        <v>12.45124576135976</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>37.9165161840005</v>
+        <v>37.91651618404711</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>45.04243364442601</v>
+        <v>45.04243364439668</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-10.85862737219742</v>
+        <v>-10.85862737218503</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.82429122528873</v>
+        <v>29.82429122526838</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>38.6946539245269</v>
+        <v>38.69465392452145</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6.240057376293692</v>
+        <v>6.240057376280731</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>23.34439860630374</v>
+        <v>23.34439860629465</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.68436665785617</v>
+        <v>29.68436665785958</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>23.33918199598628</v>
+        <v>23.33918199600254</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>31.65146485856707</v>
+        <v>31.65146485856127</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.53989220533668</v>
+        <v>36.53989220541308</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>41.7675572981272</v>
+        <v>41.7675572981172</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>48.39607229634447</v>
+        <v>48.39607229638904</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>53.91418263895031</v>
+        <v>53.91418263896759</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>17.66522996770885</v>
+        <v>17.66522996766827</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>43.13609482847318</v>
+        <v>43.13609482847647</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>50.26439408899711</v>
+        <v>50.26439408900484</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>2.986125967421629</v>
+        <v>2.986125967416626</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>43.67033842576296</v>
+        <v>43.67033842590712</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>52.54066728160689</v>
+        <v>52.5406672816228</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>20.09105837718079</v>
+        <v>20.091058377141</v>
       </c>
     </row>
     <row r="171">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>43.53693416047219</v>
+        <v>43.53693416048287</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>37.19211241471822</v>
+        <v>37.19211241482361</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>45.50557656385223</v>
+        <v>45.50557656393215</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>50.39429462657068</v>
+        <v>50.39429462660979</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>55.62787140423319</v>
+        <v>55.62787140430584</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>62.25676689067262</v>
+        <v>62.25676689062863</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>67.77520039191126</v>
+        <v>67.77520039192569</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>31.52334788072432</v>
+        <v>31.52334788085687</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>56.99589628360246</v>
+        <v>56.99589628371479</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>64.12447350846543</v>
+        <v>64.12447350859298</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-5.590957051061821</v>
+        <v>-5.590957051010889</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>35.08813643852142</v>
+        <v>35.08813643854279</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>43.95504887272938</v>
+        <v>43.95504887269573</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>11.51372639315281</v>
+        <v>11.51372639314474</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.61516438950656</v>
+        <v>28.61516438951691</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>34.95217279815421</v>
+        <v>34.95217279820469</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.60733849792126</v>
+        <v>28.60733849788909</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36.91738028342519</v>
+        <v>36.91738028340757</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>41.80326782982439</v>
+        <v>41.8032678299017</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>47.03302377360393</v>
+        <v>47.03302377356664</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>53.66045453616772</v>
+        <v>53.660454536195</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>59.17674474300105</v>
+        <v>59.17674474298832</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22.9309324336736</v>
+        <v>22.93093243367542</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>48.39704557207932</v>
+        <v>48.39704557206477</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>55.52285015100159</v>
+        <v>55.52285015101614</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-0.3786410997573171</v>
+        <v>-0.3786410997611824</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>40.30510378776552</v>
+        <v>40.30510378773414</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>49.17532841901772</v>
+        <v>49.1753284189802</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>16.72110037362353</v>
+        <v>16.72110037363615</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>33.82623442624316</v>
+        <v>33.82623442621326</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>40.16609145767649</v>
+        <v>40.16609145762897</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>33.82082187171403</v>
+        <v>33.82082187170266</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>42.13380585873955</v>
+        <v>42.13380585877775</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>47.0221414512153</v>
+        <v>47.02214145126123</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>52.24967476912383</v>
+        <v>52.24967476909507</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>58.87846352567357</v>
+        <v>58.87846352563741</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>64.39649963902872</v>
+        <v>64.396499639007</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.14647360391126</v>
+        <v>28.14647360393298</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>53.61818124556993</v>
+        <v>53.61818124559187</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>60.74636755071964</v>
+        <v>60.74636755072737</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>13.46513874877786</v>
+        <v>13.46513874874819</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>54.15017744681694</v>
+        <v>54.15017744683138</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>63.02036824842372</v>
+        <v>63.02036824847318</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>30.57112788896035</v>
+        <v>30.57112788903311</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>47.67758211351571</v>
+        <v>47.67758211354482</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>54.01768544315956</v>
+        <v>54.01768544317775</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>47.67277873981499</v>
+        <v>47.67277873984239</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>55.98694397837249</v>
+        <v>55.98694397836249</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>60.87557029391479</v>
+        <v>60.87557029389262</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>66.109015362359</v>
+        <v>66.10901536233672</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>72.73818460684703</v>
+        <v>72.73818460689068</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>78.25654387455614</v>
+        <v>78.25654387456888</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>42.0036180483541</v>
+        <v>42.00361804830862</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>67.4770092032133</v>
+        <v>67.47700920319738</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>74.6054734835198</v>
+        <v>74.60547348345159</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-3.721367573772852</v>
+        <v>-3.721367573758528</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>36.95586469543281</v>
+        <v>36.95586469550443</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>45.82151210266267</v>
+        <v>45.82151210270564</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>13.38237400962367</v>
+        <v>13.38237400966665</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>30.48354030584807</v>
+        <v>30.48354030583897</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>36.81956329200585</v>
+        <v>36.81956329200767</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>30.4752464135326</v>
+        <v>30.4752464135999</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>38.7855178514821</v>
+        <v>38.78551785140934</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>43.67060822765308</v>
+        <v>43.67060822772584</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>48.90017677221653</v>
+        <v>48.9001767722803</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>55.52749224271832</v>
+        <v>55.52749224272037</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>61.04299517488681</v>
+        <v>61.0429951749681</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>24.79861026382179</v>
+        <v>24.79861026384179</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>50.26398235553262</v>
+        <v>50.26398235560742</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>57.38871772080751</v>
+        <v>57.38871772081967</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>1.490804145053346</v>
+        <v>1.490804145061759</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>42.17268757537596</v>
+        <v>42.172687575368</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>51.04164683335586</v>
+        <v>51.04164683335017</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>18.58960398585901</v>
+        <v>18.58960398585378</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>35.69446610197616</v>
+        <v>35.69446610196934</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>42.0333374402515</v>
+        <v>42.03333744025218</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>35.68858548510997</v>
+        <v>35.68858548520433</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>44.0017989185373</v>
+        <v>44.0017989184534</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>48.88933711749547</v>
+        <v>48.88933711753162</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>54.11668334358563</v>
+        <v>54.11668334362031</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>60.74535674622183</v>
+        <v>60.74535674621865</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>66.26260540574577</v>
+        <v>66.26260540573861</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>30.01400724187164</v>
+        <v>30.01400724185504</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>55.48497349541714</v>
+        <v>55.48497349542805</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>62.61209034958614</v>
+        <v>62.61209034957704</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>15.33397754908691</v>
+        <v>15.33397754906122</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>56.01715473063103</v>
+        <v>56.0171547306673</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>64.88608014744506</v>
+        <v>64.8860801474213</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>32.43902449035153</v>
+        <v>32.43902449027684</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>49.54520675215775</v>
+        <v>49.54520675217219</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>55.88432434565556</v>
+        <v>55.88432434560826</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>49.53993526195319</v>
+        <v>49.53993526200946</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>57.85432993350418</v>
+        <v>57.85432993350759</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>62.74215880958599</v>
+        <v>62.74215880957451</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>67.97541622308125</v>
+        <v>67.97541622315913</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>74.60447009861292</v>
+        <v>74.60447009855108</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>80.1220418487398</v>
+        <v>80.12204184873082</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>43.87054412699962</v>
+        <v>43.87054412698825</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>69.34319383900953</v>
+        <v>69.34319383898588</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>76.47058861884574</v>
+        <v>76.47058861885711</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-16.55017674773973</v>
+        <v>-16.55017674774359</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>24.12618854397527</v>
+        <v>24.12618854398141</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>32.992595948683</v>
+        <v>32.99259594868414</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.5524911238940717</v>
+        <v>0.5524911238533718</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>17.65247614013089</v>
+        <v>17.65247614015817</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>23.98926785096666</v>
+        <v>23.98926785101759</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>17.6447495306474</v>
+        <v>17.64474953071834</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.9538636449708</v>
+        <v>25.95386364502173</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>30.83964671171344</v>
+        <v>30.83964671171708</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>36.06908610644308</v>
+        <v>36.06908610641409</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>42.69594669653674</v>
+        <v>42.69594669651502</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>48.21186944992434</v>
+        <v>48.21186944990728</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>11.96850613756152</v>
+        <v>11.96850613756698</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>37.43280364524963</v>
+        <v>37.43280364528079</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>44.55829771669147</v>
+        <v>44.55829771666714</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-11.33755335422683</v>
+        <v>-11.33755335424934</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.34346317005685</v>
+        <v>29.34346317003434</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>38.2131827006877</v>
+        <v>38.21318270071839</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>5.760172703082446</v>
+        <v>5.760172703113597</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>22.86385360542687</v>
+        <v>22.86385360539822</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.2034939439298</v>
+        <v>29.20349394387591</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>22.85854030742502</v>
+        <v>22.858540307483</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>31.17059647266177</v>
+        <v>31.17059647268701</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>36.05882761158415</v>
+        <v>36.05882761158392</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>41.28604441025362</v>
+        <v>41.28604441025738</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>47.91426295219043</v>
+        <v>47.91426295216007</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>53.43193152131818</v>
+        <v>53.43193152127839</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>17.18435452906937</v>
+        <v>17.18435452909824</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>42.65424630135607</v>
+        <v>42.65424630134697</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>49.78212210710404</v>
+        <v>49.78212210706971</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>2.50761165777584</v>
+        <v>2.507611657741052</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>43.18992208283106</v>
+        <v>43.18992208282538</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>52.05960772348345</v>
+        <v>52.05960772345048</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>19.61158495993726</v>
+        <v>19.61158495991896</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>36.71658613138374</v>
+        <v>36.71658613138908</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>43.05647270910373</v>
+        <v>43.05647270904734</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>36.71188198499277</v>
+        <v>36.71188198503995</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>45.02511949329624</v>
+        <v>45.02511949321064</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>49.91364130329572</v>
+        <v>49.91364130329913</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>55.14676927497129</v>
+        <v>55.14676927494003</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>61.77536833424512</v>
+        <v>61.77536833423784</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>67.29336001946712</v>
+        <v>67.29336001940015</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>31.04288333527637</v>
+        <v>31.04288333526318</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>56.51445867372973</v>
+        <v>56.51445867367698</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>63.64261239560796</v>
+        <v>63.64261239563024</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-15.19488108238448</v>
+        <v>-15.19488108238426</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>25.48401978378268</v>
+        <v>25.48401978379565</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>34.35099713650112</v>
+        <v>34.35099713643223</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>1.909202776770883</v>
+        <v>1.909202776786458</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>19.01037153067801</v>
+        <v>19.01037153073679</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.34743170609664</v>
+        <v>25.34743170612848</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>19.00244361327503</v>
+        <v>19.00244361335336</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>27.31221967126265</v>
+        <v>27.31221967128414</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>32.19814965054098</v>
+        <v>32.19814965049551</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>37.4281797963842</v>
+        <v>37.42817979635817</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>44.05554013212549</v>
+        <v>44.05554013219495</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>49.57187086475284</v>
+        <v>49.57187086475921</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>13.32633467212582</v>
+        <v>13.32633467214788</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>38.79221725737699</v>
+        <v>38.79221725740518</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>45.91806712950466</v>
+        <v>45.9180671295274</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-9.984403435603269</v>
+        <v>-9.984403435603951</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>30.69914881505844</v>
+        <v>30.69914881511141</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>39.56943840317336</v>
+        <v>39.56943840309174</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>7.114738330237685</v>
+        <v>7.114738330261673</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>24.21960311398919</v>
+        <v>24.21960311404661</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>30.55951195731456</v>
+        <v>30.5595119573548</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>24.21408852486371</v>
+        <v>24.21408852487986</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>32.52680675685139</v>
+        <v>32.52680675683865</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>37.41518482489283</v>
+        <v>37.41518482485259</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>42.64299238765835</v>
+        <v>42.64299238762595</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>49.27171071447134</v>
+        <v>49.27171071447918</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>54.78978737292283</v>
+        <v>54.78978737291021</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>18.54003745124447</v>
+        <v>18.5400374512248</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>44.0115145204789</v>
+        <v>44.01151452042444</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>51.13974615966873</v>
+        <v>51.13974615960097</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>3.859992647888305</v>
+        <v>3.859992647932188</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>44.54483874189356</v>
+        <v>44.54483874189879</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>53.41509451112989</v>
+        <v>53.41509451116104</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>20.96538210622788</v>
+        <v>20.9653821063103</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>38.07156709695431</v>
+        <v>38.07156709703628</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>44.41172224632379</v>
+        <v>44.41172224633084</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>38.06666169660951</v>
+        <v>38.06666169660269</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>46.38056121299468</v>
+        <v>46.38056121297308</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>51.26923000991957</v>
+        <v>51.26923000990502</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>56.50294926944611</v>
+        <v>56.50294926942735</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>63.13204809507823</v>
+        <v>63.13204809511132</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>68.65044791640179</v>
+        <v>68.65044791641031</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>32.39779815411924</v>
+        <v>32.397798154074</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>57.87095876603013</v>
+        <v>57.87095876601046</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>64.99946838567433</v>
+        <v>64.99946838567308</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-0.06915967816127022</v>
+        <v>-0.06915967814717305</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>40.60961775294157</v>
+        <v>40.60961775293657</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>49.47562409196263</v>
+        <v>49.4756240919599</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>17.03595935042455</v>
+        <v>17.03595935042728</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>34.13784310529678</v>
+        <v>34.13784310532384</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>40.47418760013494</v>
+        <v>40.47418760020633</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>34.12949446007764</v>
+        <v>34.12949446009299</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>42.44015967299919</v>
+        <v>42.44015967300908</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>47.32552497889611</v>
+        <v>47.32552497887588</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>52.5551959681797</v>
+        <v>52.55519596816879</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>59.18277073561916</v>
+        <v>59.1827707356137</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>64.69843957182303</v>
+        <v>64.69843957180484</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.45269224546763</v>
+        <v>28.45269224545478</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>53.91914401357843</v>
+        <v>53.91914401357309</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>61.0442380272454</v>
+        <v>61.04423802725995</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>5.138817923669819</v>
+        <v>5.138817923680506</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>45.82224660086484</v>
+        <v>45.82224660089167</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>54.69156493697761</v>
+        <v>54.69156493701036</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>22.23899470940438</v>
+        <v>22.23899470940802</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>39.34457434917618</v>
+        <v>39.34457434916163</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>45.6837673335329</v>
+        <v>45.68376733358406</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>39.33863895484939</v>
+        <v>39.33863895486928</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>47.65224621274893</v>
+        <v>47.65224621268879</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>52.54005946391527</v>
+        <v>52.54005946390072</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>57.76750805325156</v>
+        <v>57.76750805331511</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>64.39644078012901</v>
+        <v>64.39644078011798</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>69.91385540134962</v>
+        <v>69.91385540135497</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>33.66389474500676</v>
+        <v>33.66389474508497</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>59.13594080047341</v>
+        <v>59.13594080048614</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>66.26341641252242</v>
+        <v>66.2634164125588</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>18.9825948131159</v>
+        <v>18.98259481316001</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>59.66731730884993</v>
+        <v>59.66731730885266</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>68.53660177746355</v>
+        <v>68.53660177741989</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>36.08901893865999</v>
+        <v>36.08901893867909</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>53.19591878644763</v>
+        <v>53.19591878644013</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>59.53535802098946</v>
+        <v>59.53535802097173</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>53.19059250625975</v>
+        <v>53.19059250633705</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>61.505381056217</v>
+        <v>61.50538105624395</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>66.3934849861451</v>
+        <v>66.39348498612748</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>71.62684492091063</v>
+        <v>71.62684492093246</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>78.2561581492393</v>
+        <v>78.25615814927068</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>83.77389586148394</v>
+        <v>83.77389586145438</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>47.52103556456831</v>
+        <v>47.52103556456456</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>72.99476514601832</v>
+        <v>72.9947651461145</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>80.12251867579681</v>
+        <v>80.1225186757726</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-21.19175794873019</v>
+        <v>-21.19175794876111</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>19.48407785395528</v>
+        <v>19.48407785397256</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.35082555686773</v>
+        <v>28.35082555687637</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-4.090216765898674</v>
+        <v>-4.090216765863772</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>13.00942718288371</v>
+        <v>13.00942718292248</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>19.34651714527337</v>
+        <v>19.34651714531975</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>13.00189480358478</v>
+        <v>13.00189480363048</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>21.3107512142422</v>
+        <v>21.31075121421651</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>26.19679106856148</v>
+        <v>26.19679106860445</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>31.42567741808938</v>
+        <v>31.42567741811871</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>38.05248111156783</v>
+        <v>38.05248111152258</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>43.56855798248063</v>
+        <v>43.56855798253179</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>7.325226745231419</v>
+        <v>7.32522674524381</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>32.78921555951268</v>
+        <v>32.78921555950939</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>39.91499626357205</v>
+        <v>39.91499626359206</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-15.98260535053186</v>
+        <v>-15.98260535055925</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>24.69788159462979</v>
+        <v>24.69788159463968</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>33.56794148843147</v>
+        <v>33.5679414883669</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>1.113993866380781</v>
+        <v>1.113993866413637</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>18.21733359212755</v>
+        <v>18.21733359209651</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>24.55727226451614</v>
+        <v>24.55727226455957</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>18.21221451931814</v>
+        <v>18.21221451935406</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>26.52401288060327</v>
+        <v>26.52401288059758</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.41250088419298</v>
+        <v>31.41250088424209</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>36.63916481304892</v>
+        <v>36.63916481304881</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>43.26732642632402</v>
+        <v>43.26732642632754</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>48.78514915694592</v>
+        <v>48.78514915694615</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>12.53760435214309</v>
+        <v>12.53760435212502</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>38.00718728306111</v>
+        <v>38.00718728302849</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>45.13534982932816</v>
+        <v>45.13534982928383</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-2.137219251344561</v>
+        <v>-2.137219251266799</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>38.54456158609509</v>
+        <v>38.54456158609827</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>47.41458762223061</v>
+        <v>47.41458762224516</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>14.96562727565282</v>
+        <v>14.96562727565998</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>32.07028726496509</v>
+        <v>32.07028726502682</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>38.41047219710077</v>
+        <v>38.41047219718399</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>32.06577732489205</v>
+        <v>32.06577732499528</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>40.37875702500065</v>
+        <v>40.37875702505181</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>45.26753571465048</v>
+        <v>45.26753571467503</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>50.5001108149375</v>
+        <v>50.50011081494273</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>57.12865295842317</v>
+        <v>57.12865295843682</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>62.64679882785668</v>
+        <v>62.64679882785441</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.39635431231301</v>
+        <v>26.39635431237247</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>51.86762079954138</v>
+        <v>51.86762079959652</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>58.99606128190038</v>
+        <v>58.99606128191186</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-10.1610125633411</v>
+        <v>-10.16101256337691</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>30.51691257846591</v>
+        <v>30.51691257844669</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>39.38308021156041</v>
+        <v>39.38308021147219</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>6.941976953643859</v>
+        <v>6.941976953649885</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.0430409237062</v>
+        <v>24.0430409236954</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>30.37944655039934</v>
+        <v>30.37944655035363</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>24.03514169560384</v>
+        <v>24.03514169561657</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>32.34507709120356</v>
+        <v>32.34507709124222</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>37.23047226947011</v>
+        <v>37.23047226944828</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>42.46021771929151</v>
+        <v>42.46021771930083</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>49.0875033050491</v>
+        <v>49.08750330504205</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>54.60325948465089</v>
+        <v>54.60325948465658</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>18.35818106872608</v>
+        <v>18.35818106866788</v>
       </c>
     </row>
     <row r="465">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>50.94890524299882</v>
+        <v>50.94890524302974</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-4.950860087949138</v>
+        <v>-4.950860087978242</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.73171635861291</v>
+        <v>35.73171635860382</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>44.60119605119763</v>
+        <v>44.60119605126312</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>12.14718746899365</v>
+        <v>12.14718746900479</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.25194731915479</v>
+        <v>29.25194731916571</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>35.5912015218517</v>
+        <v>35.59120152189331</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.24646150543589</v>
+        <v>29.24646150543771</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>37.55933892538854</v>
+        <v>37.55933892535217</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>42.44718213156176</v>
+        <v>42.44718213159996</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>47.67470531844793</v>
+        <v>47.67470531846283</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>54.30334884695259</v>
+        <v>54.30334884700204</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>59.8208508553617</v>
+        <v>59.8208508554107</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>23.5715590381995</v>
+        <v>23.57155903824838</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>49.04278080229648</v>
+        <v>49.04278080234559</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>56.17025917250345</v>
+        <v>56.17025917250936</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>8.893841452670983</v>
+        <v>8.893841452682238</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>49.57771176743853</v>
+        <v>49.57771176733337</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>58.44715763021242</v>
+        <v>58.44715763022708</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>25.99813641950351</v>
+        <v>25.99813641951829</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>43.1042165277193</v>
+        <v>43.10421652772658</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>49.44371700334779</v>
+        <v>49.44371700332232</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>43.09933984156697</v>
+        <v>43.09933984151877</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>51.41339859904366</v>
+        <v>51.41339859905639</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>56.30153249967071</v>
+        <v>56.30153249957931</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>61.5349670076418</v>
+        <v>61.53496700764737</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>68.16399105935108</v>
+        <v>68.16399105940701</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>73.68181617944646</v>
+        <v>73.68181617944384</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>37.42962460730081</v>
+        <v>37.42962460735993</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>62.90252995190605</v>
+        <v>62.90252995192242</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>70.03028626461213</v>
+        <v>70.03028626465306</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-22.37566847411216</v>
+        <v>-22.37566847413387</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>18.30139556758905</v>
+        <v>18.3013955675728</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>27.16784169551812</v>
+        <v>27.16784169552744</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-5.273728527500168</v>
+        <v>-5.273728527518244</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>11.82643853361202</v>
+        <v>11.82643853361759</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>18.16313351694299</v>
+        <v>18.16313351698119</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>11.81884483508503</v>
+        <v>11.81884483507946</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>20.12796453551124</v>
+        <v>20.12796453549112</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.01362260029015</v>
+        <v>25.01362260031902</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>30.24343627406932</v>
+        <v>30.24343627406978</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.87042334492702</v>
+        <v>36.87042334496886</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>42.3862822044369</v>
+        <v>42.38628220445781</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>6.142344820473397</v>
+        <v>6.1423448205299</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>31.60705455120382</v>
+        <v>31.60705455121689</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>38.73244447564463</v>
+        <v>38.73244447564485</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-17.16848150474181</v>
+        <v>-17.16848150470918</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>23.51323376447471</v>
+        <v>23.51323376446732</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>32.38299206803009</v>
+        <v>32.38299206804805</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-0.07148375451396305</v>
+        <v>-0.07148375455352607</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>17.0323791025574</v>
+        <v>17.03237910261743</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>23.37192278951039</v>
+        <v>23.37192278952676</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>17.02719876627231</v>
+        <v>17.02719876626514</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>25.339260412741</v>
+        <v>25.33926041274975</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>30.22736662518838</v>
+        <v>30.22736662525341</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>35.45495801802264</v>
+        <v>35.45495801801593</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>42.08330301766165</v>
+        <v>42.08330301770019</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>47.60090773747316</v>
+        <v>47.6009077375366</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>11.35275689160068</v>
+        <v>11.35275689172062</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>36.82306081016083</v>
+        <v>36.8230608101066</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>43.95083254456932</v>
+        <v>43.95083254463117</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-3.322161074446115</v>
+        <v>-3.322161074462599</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>37.36084815117528</v>
+        <v>37.36084815116425</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>46.23057258430305</v>
+        <v>46.23057258429941</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>13.78108409909299</v>
+        <v>13.78108409910755</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>30.88626728896105</v>
+        <v>30.88626728897606</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>37.22605722460872</v>
+        <v>37.22605722461509</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>30.88169610936239</v>
+        <v>30.88169610934978</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>39.19493915769846</v>
+        <v>39.19493915768561</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>44.08333604706223</v>
+        <v>44.0833360470636</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>49.31683866858299</v>
+        <v>49.31683866852319</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>55.94556419935606</v>
+        <v>55.94556419935833</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>61.46349203436279</v>
+        <v>61.46349203439144</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.21244136535046</v>
+        <v>25.21244136543424</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>50.6844289215789</v>
+        <v>50.68442892156992</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>57.81247857158797</v>
+        <v>57.81247857162992</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-27.50240348217829</v>
+        <v>-27.50240348217568</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.17304000325936</v>
+        <v>13.17304000326925</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>22.0391828688301</v>
+        <v>22.0391828687753</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-10.4016717008912</v>
+        <v>-10.40167170090109</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.697652924092438</v>
+        <v>6.697652924063675</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>13.03407833331499</v>
+        <v>13.03407833327202</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.690069959370305</v>
+        <v>6.690069959440336</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>14.99866593128269</v>
+        <v>14.99866593129019</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.88409372141251</v>
+        <v>19.88409372148595</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.11390438668553</v>
+        <v>25.11390438671577</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>31.74058730833707</v>
+        <v>31.7405873082734</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>37.2563056830075</v>
+        <v>37.25630568301159</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>1.013944408184045</v>
+        <v>1.01394440818973</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.47751777028685</v>
+        <v>26.4775177702507</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>33.60261344653128</v>
+        <v>33.60261344651195</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-22.29469564323409</v>
+        <v>-22.2946956432433</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>18.38539893016576</v>
+        <v>18.38539893015155</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.25485387373084</v>
+        <v>27.25485387371629</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-5.198905802776665</v>
+        <v>-5.198905802789284</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>11.90411449761126</v>
+        <v>11.90411449760774</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>18.24338853060436</v>
+        <v>18.24338853058549</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>11.89894485125745</v>
+        <v>11.89894485127223</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>20.21048266971337</v>
+        <v>20.21048266971724</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.09835853917917</v>
+        <v>25.09835853916985</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>30.32594703077444</v>
+        <v>30.32594703074193</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>36.95398783652723</v>
+        <v>36.95398783657885</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>42.47145203350061</v>
+        <v>42.47145203353358</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>6.22487738733804</v>
+        <v>6.224877387338267</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>31.69404474918844</v>
+        <v>31.69404474918866</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>38.82152217906906</v>
+        <v>38.82152217907293</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-8.448746598449986</v>
+        <v>-8.448746598480909</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.23264189011144</v>
+        <v>32.23264189003504</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>41.10206298242707</v>
+        <v>41.10206298237614</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>8.653290454289447</v>
+        <v>8.653290454333558</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>25.75763104663162</v>
+        <v>25.75763104658182</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>32.09715133039759</v>
+        <v>32.0971513303312</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.75307055119373</v>
+        <v>25.75307055118702</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.06578973549671</v>
+        <v>34.06578973548227</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>38.95395627932618</v>
+        <v>38.95395627931526</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>44.18745580181775</v>
+        <v>44.18745580184685</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>50.81587712042978</v>
+        <v>50.81587712040931</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>56.3336644278383</v>
+        <v>56.33366442789151</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>20.0841900302043</v>
+        <v>20.08419003026182</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>45.55504097553597</v>
+        <v>45.55504097555234</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>52.682796322059</v>
+        <v>52.68279632205378</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-13.0020602426078</v>
+        <v>-13.00206024259666</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.67680926470956</v>
+        <v>27.67680926470251</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>36.54403380106947</v>
+        <v>36.54403380102241</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>4.101930290418579</v>
+        <v>4.101930290403232</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>21.20289290242937</v>
+        <v>21.20289290246086</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>27.54021539312936</v>
+        <v>27.54021539314118</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>21.19540394532277</v>
+        <v>21.19540394531197</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.50494226117161</v>
+        <v>29.50494226115308</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>34.39111228369944</v>
+        <v>34.39111228367216</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>39.62088902962495</v>
+        <v>39.62088902957709</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>46.24816920243046</v>
+        <v>46.24816920243444</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>51.76459780641568</v>
+        <v>51.76459780639294</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>15.51913352807679</v>
+        <v>15.51913352806611</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>40.98486034584749</v>
+        <v>40.98486034586659</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>48.11097560276659</v>
+        <v>48.11097560276022</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-7.792401146315058</v>
+        <v>-7.792401146299369</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>32.89111974112944</v>
+        <v>32.89111974112421</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>41.76165658634028</v>
+        <v>41.76165658632232</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>9.306647152208768</v>
+        <v>9.306647152223661</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>26.4113057831118</v>
+        <v>26.41130578312374</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>32.75147701914563</v>
+        <v>32.75147701912766</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>26.40623016028172</v>
+        <v>26.40623016025421</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>34.71871063651366</v>
+        <v>34.71871063651184</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>39.60732881959285</v>
+        <v>39.60732881950895</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>44.83488294646105</v>
+        <v>44.83488294638863</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>51.46352111144967</v>
+        <v>51.46352111145569</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>56.98169565399513</v>
+        <v>56.98169565393022</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>20.73201760149988</v>
+        <v>20.7320176014511</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>46.20333890996591</v>
+        <v>46.20333890986416</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>53.33183599854311</v>
+        <v>53.33183599847899</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>6.052718369769593</v>
+        <v>6.052718369757088</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>46.73753314883544</v>
+        <v>46.73753314881156</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>55.60803614441585</v>
+        <v>55.60803614436674</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>23.15801441496882</v>
+        <v>23.15801441497302</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>40.26399329011787</v>
+        <v>40.26399329011434</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>46.60441081754749</v>
+        <v>46.60441081755272</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>40.25952687288867</v>
+        <v>40.2595268728964</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>48.57318866463191</v>
+        <v>48.57318866460849</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>53.46209756756508</v>
+        <v>53.46209756759418</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>58.69556342530035</v>
+        <v>58.69556342529978</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>65.32458209699706</v>
+        <v>65.32458209697194</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>70.84307980936359</v>
+        <v>70.8430798094285</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>34.59050187465067</v>
+        <v>34.59050187465454</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>60.06350676116523</v>
+        <v>60.063506761111</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>67.19228181682359</v>
+        <v>67.19228181680779</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-12.20595962608678</v>
+        <v>-12.20595962606802</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.47152648467517</v>
+        <v>28.47152648466096</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>37.33809628452383</v>
+        <v>37.33809628452406</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>4.896840670746258</v>
+        <v>4.896840670770132</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>21.99751491509727</v>
+        <v>21.99751491511182</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.33434123378726</v>
+        <v>28.33434123379249</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>21.98979881950851</v>
+        <v>21.98979881951601</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.2993945486142</v>
+        <v>30.29939454860488</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>35.18517118835399</v>
+        <v>35.18517118833535</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>40.41450778033749</v>
+        <v>40.41450778036182</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>47.04169146860289</v>
+        <v>47.04169146863472</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>52.5576328080727</v>
+        <v>52.55763280808156</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>16.31280150685024</v>
+        <v>16.31280150682318</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>41.77807796022802</v>
+        <v>41.77807796021915</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>48.90362417590478</v>
+        <v>48.90362417591615</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-6.999481771454214</v>
+        <v>-6.999481771423177</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.68265555097304</v>
+        <v>33.68265555096565</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>42.55253750961839</v>
+        <v>42.55253750960588</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>10.09837630285625</v>
+        <v>10.09837630283442</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>27.20274634882259</v>
+        <v>27.20274634884623</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>33.54242134565294</v>
+        <v>33.54242134565249</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>27.1974435994851</v>
+        <v>27.19744359950454</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>35.50998128652424</v>
+        <v>35.50998128650434</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>40.39820604700373</v>
+        <v>40.39820604700873</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>45.62532037868931</v>
+        <v>45.62532037867612</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>52.25386199715325</v>
+        <v>52.25386199718167</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>57.77154920082995</v>
+        <v>57.77154920088043</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>21.52250449427237</v>
+        <v>21.52250449427248</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>46.9933751209939</v>
+        <v>46.99337512095946</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>54.12130314228608</v>
+        <v>54.12130314227176</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>6.845625118821033</v>
+        <v>6.845625118757141</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>47.52905633311633</v>
+        <v>47.52905633316749</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>56.39890444587724</v>
+        <v>56.39890444582812</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>23.94973066533674</v>
+        <v>23.94973066531855</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>41.05542098377003</v>
+        <v>41.05542098378459</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>47.39534224729283</v>
+        <v>47.3953422472635</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>41.0507273475277</v>
+        <v>41.05072734753122</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>49.36444638251982</v>
+        <v>49.36444638254881</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>54.25296183449478</v>
+        <v>54.25296183445363</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>59.48598748521005</v>
+        <v>59.48598748528656</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>66.11490963499824</v>
+        <v>66.1149096349655</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>71.63291995672745</v>
+        <v>71.63291995672392</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>35.38097548760192</v>
+        <v>35.38097548753825</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>60.85352969885884</v>
+        <v>60.85352969879699</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>67.98173565249618</v>
+        <v>67.9817356524814</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>-2.966398644446883</v>
+        <v>-2.966398644392655</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>37.71394859393166</v>
+        <v>37.71394859393519</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>46.58105010874107</v>
+        <v>46.58105010876494</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>14.13923739608816</v>
+        <v>14.1392373960303</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>31.24136525417151</v>
+        <v>31.24136525426098</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>37.57853634634586</v>
+        <v>37.5785363463545</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>31.23336709417919</v>
+        <v>31.2333670942142</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>39.54385684165987</v>
+        <v>39.54385684171058</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>44.42988034876322</v>
+        <v>44.42988034880824</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>49.65962525948083</v>
+        <v>49.65962525939273</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>56.28734982285681</v>
+        <v>56.28734982280247</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>61.80373179369741</v>
+        <v>61.80373179368843</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>25.55674660995118</v>
+        <v>25.55674660996527</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>51.02381442331483</v>
+        <v>51.02381442333643</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>58.14981456857453</v>
+        <v>58.14981456859226</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>2.243728824466245</v>
+        <v>2.243728824529455</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>42.92872754064575</v>
+        <v>42.92872754064007</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>51.79914133848212</v>
+        <v>51.7991413384969</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>19.34442258963253</v>
+        <v>19.34442258968119</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>36.45024656678578</v>
+        <v>36.45024656684444</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>42.79026636171062</v>
+        <v>42.79026636170244</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>36.44466173775021</v>
+        <v>36.44466173774975</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>44.75809373482792</v>
+        <v>44.75809373483838</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>49.6465653591452</v>
+        <v>49.6465653591527</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>54.87408759896329</v>
+        <v>54.87408759899932</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>61.503170196094</v>
+        <v>61.50317019610742</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>67.02129811735171</v>
+        <v>67.02129811734545</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>30.77009915173193</v>
+        <v>30.77009915178058</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>56.24276158378774</v>
+        <v>56.2427615838638</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>63.37114352112604</v>
+        <v>63.37114352116254</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>16.08791770745216</v>
+        <v>16.08791770746615</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>56.77421026933467</v>
+        <v>56.77421026932592</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>65.64459021829776</v>
+        <v>65.64459021831686</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>33.19485928399064</v>
+        <v>33.19485928401963</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>50.30200347164765</v>
+        <v>50.30200347165663</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>56.64226955561224</v>
+        <v>56.64226955561907</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>50.29702782050089</v>
+        <v>50.29702782048406</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>58.61164110507383</v>
+        <v>58.61164110506576</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>63.5004034470972</v>
+        <v>63.50040344706071</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>68.73383755369747</v>
+        <v>68.73383755369395</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>75.36330064991586</v>
+        <v>75.36330064993257</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>80.8817517168448</v>
+        <v>80.88175171680649</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>44.62765291947204</v>
+        <v>44.62765291947898</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>70.10199890601046</v>
+        <v>70.1019989060722</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>77.2306588063995</v>
+        <v>77.23065880646135</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-7.960573155279633</v>
+        <v>-7.960573155381155</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>32.71768210393822</v>
+        <v>32.71768210388012</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>41.58467336633004</v>
+        <v>41.58467336630821</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>9.143901306541864</v>
+        <v>9.143901306518217</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>26.2447596889312</v>
+        <v>26.24475968898554</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>32.58186333665145</v>
+        <v>32.58186333667487</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>26.23700973498461</v>
+        <v>26.23700973497915</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>34.54660903752023</v>
+        <v>34.54660903751272</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>39.43258717685086</v>
+        <v>39.43258717683199</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>44.6621914769085</v>
+        <v>44.66219147687769</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>51.28938640769348</v>
+        <v>51.28938640775203</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>56.80570322099112</v>
+        <v>56.8057032209594</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>20.56072593153505</v>
+        <v>20.56072593143853</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>46.02614130924854</v>
+        <v>46.02614130918681</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>53.15204102741933</v>
+        <v>53.15204102729973</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-2.749897824795596</v>
+        <v>-2.749897824881202</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>37.93300872269793</v>
+        <v>37.93300872261051</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>46.80331219262831</v>
+        <v>46.80331219249734</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>14.34963465977063</v>
+        <v>14.34963465980064</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>31.45418900988153</v>
+        <v>31.45418900985857</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>37.79414129065509</v>
+        <v>37.79414129064804</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>31.44885230587346</v>
+        <v>31.44885230585743</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>39.76139373756104</v>
+        <v>39.76139373755387</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>44.64981993276234</v>
+        <v>44.64981993264911</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>49.87720160962243</v>
+        <v>49.87720160968621</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>56.50575449945694</v>
+        <v>56.50575449949366</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>62.02381721969078</v>
+        <v>62.02381721970966</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>25.77462624319463</v>
+        <v>25.77462624308924</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>51.24563600986488</v>
+        <v>51.24563600988296</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>58.37391746087434</v>
+        <v>58.37391746077384</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>11.09391656141776</v>
+        <v>11.09391656141992</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>51.77811691265885</v>
+        <v>51.77811691267897</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>60.64838654201191</v>
+        <v>60.64838654199974</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.19969667504012</v>
+        <v>28.19969667506012</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>45.30557118066764</v>
+        <v>45.30557118064581</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>51.6457697514532</v>
+        <v>51.64576975144956</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>45.30084365394185</v>
+        <v>45.30084365401359</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>53.61456632022617</v>
+        <v>53.61456632025516</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>58.50328323131436</v>
+        <v>58.50328323130765</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>63.73657661079579</v>
+        <v>63.73657661079216</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>70.365509980289</v>
+        <v>70.36550998034892</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>75.88389585604688</v>
+        <v>75.88389585605597</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>39.6318051074914</v>
+        <v>39.63180510746594</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>65.10449836475101</v>
+        <v>65.10449836473123</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>72.2330577829037</v>
+        <v>72.23305778292507</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-9.819018782582646</v>
+        <v>-9.819018782769888</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.86070879857056</v>
+        <v>30.86070879855612</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>39.72773615840293</v>
+        <v>39.72773615836564</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>7.285234875447429</v>
+        <v>7.285234875393655</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>24.38698720020119</v>
+        <v>24.38698720022268</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>30.72414561178567</v>
+        <v>30.7241456117784</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>24.3791537981669</v>
+        <v>24.37915379807606</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>32.68937208783808</v>
+        <v>32.68937208779795</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>37.57540645330215</v>
+        <v>37.57540645333285</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>42.80501168953396</v>
+        <v>42.80501168952986</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>49.43257384220982</v>
+        <v>49.43257384218799</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>54.94883402432816</v>
+        <v>54.94883402431213</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>18.70202645902492</v>
+        <v>18.702026458945</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>44.16875644289513</v>
+        <v>44.16875644287342</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>51.29467731927735</v>
+        <v>51.29467731933192</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-4.611436130766208</v>
+        <v>-4.611436130720961</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.07294289330838</v>
+        <v>36.07294289326177</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>44.94328253516534</v>
+        <v>44.94328253515056</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>12.48787510973972</v>
+        <v>12.48787510976177</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.5933234611669</v>
+        <v>29.59332346116872</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.93333062453672</v>
+        <v>35.93333062455287</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.58790345117114</v>
+        <v>29.58790345118649</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>37.90106389577005</v>
+        <v>37.90106389581086</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>42.78954643551066</v>
+        <v>42.78954643552362</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>48.01692919050316</v>
+        <v>48.01692919040414</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>54.64584933586076</v>
+        <v>54.6458493358935</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>60.16385544826954</v>
+        <v>60.16385544825033</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>23.9128342651565</v>
+        <v>23.91283426510535</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>49.38515873129239</v>
+        <v>49.38515873137675</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>56.51346146384793</v>
+        <v>56.51346146389704</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>9.233482677071436</v>
+        <v>9.233482677118502</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>49.91915559302953</v>
+        <v>49.91915559308933</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>58.78946140600038</v>
+        <v>58.78946140602574</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>26.33904172497427</v>
+        <v>26.33904172499427</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>43.44581034565061</v>
+        <v>43.44581034563038</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>49.78606380575917</v>
+        <v>49.7860638057378</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>43.4409994844296</v>
+        <v>43.44099948436207</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>51.75534127229781</v>
+        <v>51.75534127228849</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>56.64411453328438</v>
+        <v>56.64411453331496</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>61.87740900160833</v>
+        <v>61.87740900157195</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>68.50670968710432</v>
+        <v>68.50670968710057</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>74.02503895473109</v>
+        <v>74.02503895476383</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>37.77111790857037</v>
+        <v>37.77111790845646</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>63.24512598055315</v>
+        <v>63.24512598061364</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>70.37370668302748</v>
+        <v>70.3737066829961</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-16.4651729455806</v>
+        <v>-16.46517294559311</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.21164239094088</v>
+        <v>24.21164239083379</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>33.07848580397359</v>
+        <v>33.07848580390288</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>0.637531598488124</v>
+        <v>0.6375315984599297</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>17.7376382120238</v>
+        <v>17.73763821209724</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.07472388709976</v>
+        <v>24.0747238871682</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>17.72998332918786</v>
+        <v>17.7299833291849</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.0391101246318</v>
+        <v>26.03911012459997</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>30.92511098743472</v>
+        <v>30.9251109873681</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>36.154208046983</v>
+        <v>36.15420804696902</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>42.78114916458702</v>
+        <v>42.78114916463306</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>48.29737184977904</v>
+        <v>48.29737184974266</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>12.05361251816129</v>
+        <v>12.05361251820165</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>37.51808654307905</v>
+        <v>37.5180865430919</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>44.64394464669141</v>
+        <v>44.6439446467096</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-11.25261212686536</v>
+        <v>-11.25261212684353</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.42885446672864</v>
+        <v>29.4288544666868</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>38.29901007523159</v>
+        <v>38.29901007523523</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>5.845150634264598</v>
+        <v>5.845150634235495</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>22.94895317498612</v>
+        <v>22.94895317503637</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.28888752109339</v>
+        <v>29.28888752110066</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>22.94371156277344</v>
+        <v>22.94371156271865</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>31.25578044929267</v>
+        <v>31.25578044923833</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>36.14422941511867</v>
+        <v>36.14422941512595</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>41.37110385915418</v>
+        <v>41.37110385925081</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>47.99940293362675</v>
+        <v>47.99940293368519</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>53.51737149599381</v>
+        <v>53.51737149601769</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>17.26939837518654</v>
+        <v>17.26939837525623</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>42.73946673174333</v>
+        <v>42.73946673177642</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>49.86770661733573</v>
+        <v>49.8677066173662</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>2.591860429087149</v>
+        <v>2.591860428959365</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>43.2746208618567</v>
+        <v>43.27462086179213</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>52.14474262908476</v>
+        <v>52.14474262901064</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>19.69587056058111</v>
+        <v>19.69587056059441</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>36.80099330127399</v>
+        <v>36.80099330124</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>43.14117393024213</v>
+        <v>43.14117393023417</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>36.79636086240322</v>
+        <v>36.79636086238878</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>45.10961102815764</v>
+        <v>45.10961102805976</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>49.99835070173577</v>
+        <v>49.99835070169348</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>55.2311365344238</v>
+        <v>55.23113653442698</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>61.8598161052127</v>
+        <v>61.85981610522009</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>67.37810783415154</v>
+        <v>67.37810783421133</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>31.1272349821898</v>
+        <v>31.12723498224437</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>56.59898683951491</v>
+        <v>56.59898683949183</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>63.72750469573288</v>
+        <v>63.72750469573299</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-9.3572560936895</v>
+        <v>-9.357256093701892</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>31.3207731587184</v>
+        <v>31.32077315873875</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>40.18782419997598</v>
+        <v>40.18782419997757</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>7.74703554733702</v>
+        <v>7.747035547310304</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>24.84773058107459</v>
+        <v>24.84773058104787</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>31.1848978089111</v>
+        <v>31.1848978088413</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>24.8400192419237</v>
+        <v>24.8400192419536</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>33.1494902801457</v>
+        <v>33.14949028013308</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>38.03552690319049</v>
+        <v>38.03552690318071</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>43.26507249673767</v>
+        <v>43.26507249675984</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>49.89221697332886</v>
+        <v>49.89221697330055</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>55.40856358314335</v>
+        <v>55.40856358312527</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>19.16379371118313</v>
+        <v>19.16379371122952</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>44.62902314115394</v>
+        <v>44.62902314117531</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>51.75498250103311</v>
+        <v>51.75498250104857</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-4.146683402308952</v>
+        <v>-4.146683402249835</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>36.53599712226611</v>
+        <v>36.5359971222552</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>45.40636039109296</v>
+        <v>45.40636039108659</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>12.95266627025848</v>
+        <v>12.95266627024051</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>30.05705726018977</v>
+        <v>30.05705726017158</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>36.39707314133176</v>
+        <v>36.39707314139247</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>30.05175915849674</v>
+        <v>30.05175915850663</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>38.36417231695538</v>
+        <v>38.36417231696254</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>43.25265701419181</v>
+        <v>43.25265701414838</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>48.47997996801854</v>
+        <v>48.4799799680365</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>55.10848240251897</v>
+        <v>55.10848240256627</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>60.62657492434511</v>
+        <v>60.62657492437557</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>24.37759134461083</v>
+        <v>24.37759134469439</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>49.84841515125999</v>
+        <v>49.84841515123441</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>56.97675626369374</v>
+        <v>56.97675626362053</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>9.697248528651414</v>
+        <v>9.697248528650505</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>50.38122286278161</v>
+        <v>50.38122286282345</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>59.2515522879583</v>
+        <v>59.25155228796535</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>26.80284581426969</v>
+        <v>26.80284581427537</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>43.90855696358909</v>
+        <v>43.90855696357136</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>50.24881913336964</v>
+        <v>50.24881913334872</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>43.90386804312431</v>
+        <v>43.90386804313329</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>52.21746243944477</v>
+        <v>52.21746243945739</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>57.10623785180513</v>
+        <v>57.1062378518107</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>62.3394724888422</v>
+        <v>62.33947248887222</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>68.96835540373053</v>
+        <v>68.96835540370415</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>74.48677108382873</v>
+        <v>74.48677108378325</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>38.23488773251773</v>
+        <v>38.23488773251967</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>63.70739502981206</v>
+        <v>63.70739502981002</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>70.83601410962882</v>
+        <v>70.83601410964121</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-6.762418810274482</v>
+        <v>-6.762418810325528</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>33.9154739754386</v>
+        <v>33.91547397537664</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>42.78198454677141</v>
+        <v>42.78198454677027</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>10.34190957989432</v>
+        <v>10.34190957995287</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>27.44273168065848</v>
+        <v>27.44273168072226</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>33.77950752456564</v>
+        <v>33.77950752456906</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>27.43502194935871</v>
+        <v>27.43502194932529</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>35.74468790903182</v>
+        <v>35.74468790901545</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>40.63041772039679</v>
+        <v>40.6304177203786</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>45.8600083625692</v>
+        <v>45.86000836257762</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>52.48707564748173</v>
+        <v>52.4870756475031</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>58.00306089489681</v>
+        <v>58.00306089493773</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>21.75832463823309</v>
+        <v>21.75832463819125</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>47.22361069340405</v>
+        <v>47.2236106933604</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>54.34916069977936</v>
+        <v>54.34916069969569</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-1.553213532071311</v>
+        <v>-1.553213532058805</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>39.12933048897941</v>
+        <v>39.12933048902102</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>47.99915315675668</v>
+        <v>47.99915315675963</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>15.5461726976194</v>
+        <v>15.54617269761587</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>32.65069068701183</v>
+        <v>32.65069068693919</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>38.99031509797993</v>
+        <v>38.99031509796833</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>32.64539425059235</v>
+        <v>32.64539425058211</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>40.95800226340799</v>
+        <v>40.95800226334023</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>45.84618008476156</v>
+        <v>45.84618008479043</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>51.07354824302507</v>
+        <v>51.07354824299949</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>57.70197344313164</v>
+        <v>57.70197344313482</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>63.21970451968053</v>
+        <v>63.21970451970157</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>26.97075476447441</v>
+        <v>26.97075476442961</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>52.44163509752121</v>
+        <v>52.44163509752576</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>59.56956676185035</v>
+        <v>59.56956676182898</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>12.2907855666403</v>
+        <v>12.29078556669475</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>52.97462342852435</v>
+        <v>52.97462342857517</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>61.84441222738411</v>
+        <v>61.84441222730271</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.3964192694196</v>
+        <v>29.39641926943426</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>46.50225746227198</v>
+        <v>46.5022574622696</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>52.84212813229607</v>
+        <v>52.84212813231585</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>46.49757016006794</v>
+        <v>46.49757016012239</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>54.81135945417651</v>
+        <v>54.81135945413888</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>59.69982796405276</v>
+        <v>59.69982796402138</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>64.93310758130764</v>
+        <v>64.93310758125068</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>71.56191328327265</v>
+        <v>71.5619132832017</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>77.07996748598583</v>
+        <v>77.07996748605893</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>40.8281180145911</v>
+        <v>40.82811801466943</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>66.30068188064348</v>
+        <v>66.30068188061972</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>73.4288914730509</v>
+        <v>73.42889147304362</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-8.639823986015301</v>
+        <v>-8.639823986003705</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>32.03981131276186</v>
+        <v>32.03981131277664</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>40.90680702460446</v>
+        <v>40.90680702461719</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>8.46459385854547</v>
+        <v>8.464593858593332</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>25.56636651897094</v>
+        <v>25.56636651902926</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>31.90349401081704</v>
+        <v>31.90349401084273</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>25.55845862565724</v>
+        <v>25.55845862567747</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>33.86872968489132</v>
+        <v>33.86872968491315</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>38.75473633614666</v>
+        <v>38.75473633617236</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>43.9842810827019</v>
+        <v>43.98428108272441</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>50.61183346722504</v>
+        <v>50.61183346726688</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>56.12808503965601</v>
+        <v>56.12808503969774</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>19.88134473432154</v>
+        <v>19.8813447343818</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>45.34804608913799</v>
+        <v>45.34804608913731</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>52.47393739174305</v>
+        <v>52.47393739173782</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-3.432194576153677</v>
+        <v>-3.432194576217114</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>37.25209214050943</v>
+        <v>37.25209214044395</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>46.12240012168814</v>
+        <v>46.12240012178432</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>13.66728087817609</v>
+        <v>13.66728087818177</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>30.77274955666684</v>
+        <v>30.77274955663773</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>37.11272578347763</v>
+        <v>37.11272578352833</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>30.76725502473704</v>
+        <v>30.76725502492076</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>39.08046823460376</v>
+        <v>39.08046823468379</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>43.96892304405293</v>
+        <v>43.96892304412296</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>49.19624528669914</v>
+        <v>49.19624528665196</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>55.82515565623368</v>
+        <v>55.82515565623004</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>61.34315315555313</v>
+        <v>61.3431531555205</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>25.0921992419498</v>
+        <v>25.09219924206053</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>50.5644950611258</v>
+        <v>50.56449506110397</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>57.69276820144472</v>
+        <v>57.69276820149565</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>10.41236230982787</v>
+        <v>10.41236230984993</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>51.09794288926838</v>
+        <v>51.09794288921745</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>59.96821704853545</v>
+        <v>59.96821704848634</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>27.51808554044391</v>
+        <v>27.5180855404513</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>44.62487445741743</v>
+        <v>44.62487445741482</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>50.96509698626238</v>
+        <v>50.96509698624078</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>44.61998907443893</v>
+        <v>44.6199890745134</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>52.93438359957844</v>
+        <v>52.93438359962289</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>57.82312913453308</v>
+        <v>57.82312913458037</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>63.05636308759534</v>
+        <v>63.05636308764662</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>69.68565398948698</v>
+        <v>69.68565398946367</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>75.20397464121965</v>
+        <v>75.20397464117065</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>38.95012089706535</v>
+        <v>38.95012089709945</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>64.42410028891373</v>
+        <v>64.42410028888054</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>71.55265140728972</v>
+        <v>71.55265140723151</v>
       </c>
     </row>
   </sheetData>
